--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,103 +783,103 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: STIG krbtgt reset),(Citation: Microsoft Replication ACL),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: ADSecurity Mimikatz DCSync),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft MS14-025),(Citation: Microsoft Trust Considerations Nov 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Microsoft AMSI June 2015),(Citation: SourceForge rkhunter)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: FireEye DLL Side-Loading),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: GitHub PSPKIAudit),(Citation: GitHub Bloodhound),(Citation: FireEye ADFS),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Vulnerability and Exploit Detector),(Citation: Powersploit),(Citation: Mandiant Azure AD Backdoors),(Citation: Github UACMe),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: GitHub Certify),(Citation: Kubernetes Hardening Guide),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft CreateProcess),(Citation: Microsoft Get-InboxRule),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Sxstrace),(Citation: Mandiant Cloudy Logs 2023),(Citation: MagicWeb),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Preauthentication Jul 2012)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Microsoft ASR Obfuscation),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft driver block rules)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Secure Boot Process),(Citation: ESET LoJax Sept 2018),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Credential Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Gmail Delegation),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Disable Autorun),(Citation: Microsoft Disable Macros),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft BEC Campaign),(Citation: Microsoft Disable DCOM),(Citation: Symantec SSH and ssh-agent),(Citation: TechNet Removable Media Control),(Citation: GitHub MOTW),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable VBA Jan 2020),(Citation: ADSecurity Windows Secure Baseline),(Citation: TechNet Screensaver GP),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: SpecterOps Certified Pre Owned),(Citation: BleepingComputer DDE Disabled in Word Dec 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Primary Refresh Token),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Google Cloud Encryption Key Rotation),(Citation: SpecterOps Certified Pre Owned)</t>
+    <t>(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Replication ACL),(Citation: Microsoft MS14-025),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: SpecterOps Certified Pre Owned),(Citation: STIG krbtgt reset),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Trust Considerations Nov 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: SourceForge rkhunter),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015),(Citation: Mandiant Cloudy Logs 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Bugcrowd Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Microsoft CreateProcess),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: GitHub PSPKIAudit),(Citation: GitHub Certify),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Mandiant Azure AD Backdoors),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Github UACMe),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Sxstrace),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Kubernetes Hardening Guide),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Amazon S3 Security, 2019),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: SpecterOps Certified Pre Owned),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Vulnerability and Exploit Detector),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Powersploit),(Citation: Microsoft Dynamic-Link Library Security),(Citation: GitHub Bloodhound),(Citation: FireEye ADFS)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules),(Citation: win10_asr),(Citation: Microsoft ASR Nov 2017),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft driver block rules),(Citation: Enigma Reviving DDE Jan 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TCG Trusted Platform Module),(Citation: ESET LoJax Sept 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Credential Guard April 2017),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
+  </si>
+  <si>
+    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft ADV170021 Dec 2017),(Citation: TechNet Screensaver GP),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable DCOM),(Citation: GitHub MOTW),(Citation: TechNet Removable Media Control),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: SpecterOps Certified Pre Owned),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft BEC Campaign),(Citation: Gmail Delegation),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Disable Autorun),(Citation: Microsoft Disable Macros)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Primary Refresh Token),(Citation: Metcalf 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Amazon S3 Security, 2019)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: file_upload_attacks_pt2),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: SANS Application Whitelisting),(Citation: Microsoft Application Lockdown),(Citation: Beechey 2010),(Citation: Increasing Linux kernel integrity),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Using Software Restriction ),(Citation: NSA MS AppLocker),(Citation: Microsoft Windows Defender Application Control),(Citation: Kubernetes Security Context),(Citation: LKM loading kernel restrictions),(Citation: Microsoft Driver Block Rules),(Citation: Kernel.org Restrict Kernel Module),(Citation: Microsoft WDAC),(Citation: Kubernetes Hardening Guide),(Citation: Wikibooks Grsecurity),(Citation: Kernel Self Protection Project),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Technospot Chrome Extensions GP),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Default VBS macros Blocking )</t>
-  </si>
-  <si>
-    <t>(Citation: NSA MS AppLocker),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Moving Beyond EMET),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: TechNet Applocker vs SRP),(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: Beechey 2010)</t>
-  </si>
-  <si>
-    <t>(Citation: byt3bl33d3r NTLM Relaying),(Citation: Juniper DAI 2020),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: RedLock Instance Metadata API 2018),(Citation: Microsoft Preventing SMB),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: CERT-EU DDoS March 2017),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT SMB Security),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT APT Energy Oct 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes API Control Access),(Citation: Wikipedia 802.1x),(Citation: TechNet RDP Gateway),(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes Cloud Native Security),(Citation: Microsoft AKS Azure AD 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Berkley Secure),(Citation: CISA MFA PrintNightmare),(Citation: AWS - IAM Console Best Practices),(Citation: Evilginx 2 July 2018),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Expel IO Evil in AWS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Microsoft - Device Registration)</t>
-  </si>
-  <si>
-    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: University of Birmingham C2),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: dhcp_serv_op_events),(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet RDP NLA),(Citation: TechNet Removable Media Control),(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechNet Server Operator Scheduled Task),(Citation: HowToGeek ShowExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Microsoft BITS),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: reagentc_cmd),(Citation: Seqrite DoubleExtension),(Citation: Windows RDP Sessions),(Citation: Tilbury Windows Credentials),(Citation: Microsoft WDigest Mit),(Citation: EnableMPRNotifications),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Microsoft Disable NTLM Nov 2012)</t>
-  </si>
-  <si>
-    <t>(Citation: NIST 800-63-3),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: store_pwd_rev_enc)</t>
-  </si>
-  <si>
-    <t>(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: FireEye WMI 2015),(Citation: FireEye ADFS),(Citation: Mandiant Azure Run Command 2021),(Citation: TechNet Scheduling Priority),(Citation: TechNet Credential Theft),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: AWS Setting Up Run Command),(Citation: Microsoft COM ACL),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft PS JEA),(Citation: Microsoft Process Wide Com Keys),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Kubernetes Service Accounts),(Citation: Microsoft runas),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Kubernetes Hardening Guide),(Citation: ADSecurity AD Kerberos Attacks),(Citation: TechNet Least Privilege),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Tilbury Windows Credentials),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: CyberArk Labs Safe Mode 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014),(Citation: Microsoft LSA)</t>
+    <t>(Citation: TechNet Applocker vs SRP),(Citation: Microsoft PowerShell CLM),(Citation: Kernel Self Protection Project),(Citation: Microsoft WDAC),(Citation: Corio 2008),(Citation: Default VBS macros Blocking ),(Citation: Microsoft Windows Defender Application Control),(Citation: Kubernetes Hardening Guide),(Citation: LKM loading kernel restrictions),(Citation: Windows Commands JPCERT),(Citation: Wikibooks Grsecurity),(Citation: Kubernetes Security Context),(Citation: NSA MS AppLocker),(Citation: file_upload_attacks_pt2),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft Using Software Restriction ),(Citation: Microsoft Application Lockdown),(Citation: Dormann Dangers of VHD 2019),(Citation: Technospot Chrome Extensions GP),(Citation: Beechey 2010),(Citation: Kernel.org Restrict Kernel Module),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Driver Block Rules),(Citation: SANS Application Whitelisting)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft Windows Defender Application Control),(Citation: Secure Host Baseline EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: Beechey 2010),(Citation: TechNet Moving Beyond EMET),(Citation: Windows Commands JPCERT),(Citation: Corio 2008)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft SMB Packet Signing),(Citation: Juniper DAI 2020),(Citation: ntlm_relaying_kerberos_del),(Citation: RedLock Instance Metadata API 2018),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: CERT-EU DDoS March 2017),(Citation: Microsoft Preventing SMB),(Citation: Secure Ideas SMB Relay),(Citation: byt3bl33d3r NTLM Relaying),(Citation: US-CERT SMB Security),(Citation: Cisco ARP Poisoning Mitigation 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect),(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access),(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x)</t>
+  </si>
+  <si>
+    <t>(Citation: Expel IO Evil in AWS),(Citation: Berkley Secure),(Citation: CISA MFA PrintNightmare),(Citation: AWS - IAM Console Best Practices),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Evilginx 2 July 2018),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft - Device Registration),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Amazon S3 Security, 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT-TA18-106A),(Citation: dhcp_serv_op_events),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: University of Birmingham C2),(Citation: Anomali Template Injection MAR 2018),(Citation: Cybereason Dissecting DGAs),(Citation: Akamai DGA Mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts)</t>
+  </si>
+  <si>
+    <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Server Operator Scheduled Task),(Citation: TechNet RDP NLA),(Citation: TechNet Removable Media Control),(Citation: Microsoft BITS),(Citation: HowToGeek ShowExtension),(Citation: EnableMPRNotifications),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Windows RDP Sessions),(Citation: Tilbury Windows Credentials),(Citation: Microsoft WDigest Mit),(Citation: reagentc_cmd),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Seqrite DoubleExtension)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: NIST 800-63-3),(Citation: store_pwd_rev_enc),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Replace Process Token),(Citation: Mandiant Azure Run Command 2021),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: AWS Setting Up Run Command),(Citation: Tilbury Windows Credentials),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Process Wide Com Keys),(Citation: Kubernetes Admission Controllers),(Citation: FireEye WMI 2015),(Citation: Microsoft Remote Use of Local),(Citation: MagicWeb),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft PS JEA),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft COM ACL),(Citation: Microsoft runas),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Create Token),(Citation: Microsoft Securing Privileged Access),(Citation: Kubernetes Service Accounts),(Citation: Microsoft System Wide Com Keys),(Citation: TechNet Credential Theft),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: TechNet Scheduling Priority),(Citation: TechNet Least Privilege),(Citation: ADSecurity AD Kerberos Attacks),(Citation: FireEye ADFS),(Citation: Microsoft Security Alerts for Azure AD Roles)</t>
+  </si>
+  <si>
+    <t>(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: create_sym_links),(Citation: Microsoft W32Time May 2017),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: Microsoft ETW May 2018),(Citation: win_xml_evt_log)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging),(Citation: Microsoft System Services Fundamentals)</t>
+    <t>(Citation: Microsoft W32Time May 2017),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft ETW May 2018),(Citation: win_xml_evt_log),(Citation: piazza launch agent mitigation),(Citation: create_sym_links),(Citation: cisco_deploy_rsa_keys)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Securing SNMP),(Citation: ACSC Email Spoofing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: CyberArk Labs Safe Mode 2016),(Citation: CloudSploit - Unused AWS Regions),(Citation: Wikipedia HPKP),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Anti Spoofing),(Citation: Chromium HSTS)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Home Page),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: SensePost Outlook Forms),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Github UACMe)</t>
+    <t>(Citation: Cisco Securing SNMP),(Citation: ACSC Email Spoofing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CloudSploit - Unused AWS Regions),(Citation: Wikipedia HPKP),(Citation: Palo Alto Office Test Sofacy),(Citation: Enigma Reviving DDE Jan 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Anti Spoofing),(Citation: Chromium HSTS)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: SensePost Outlook Home Page),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: Cisco Blog Legacy Device Attacks)</t>
   </si>
   <si>
     <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
   </si>
   <si>
-    <t>(Citation: MDMProfileConfigMacOS),(Citation: Microsoft GPO Security Filtering),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft ETW May 2018),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Wald0 Guide to GPOs),(Citation: Apple TN2459 Kernel Extensions),(Citation: Mandiant M-Trends 2020),(Citation: Expel IO Evil in AWS),(Citation: Microsoft WMI Filters),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Office 365 Partner Relationships),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Kubernetes Hardening Guide),(Citation: Symantec BITS May 2007),(Citation: Amazon S3 Security, 2019),(Citation: Kubernetes RBAC),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Microsoft Azure Storage Security, 2019)</t>
+    <t>(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Kubernetes RBAC),(Citation: Apple TN2459 Kernel Extensions),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft WMI Filters),(Citation: Symantec BITS May 2007),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft ETW May 2018),(Citation: Microsoft GPO Security Filtering),(Citation: Wald0 Guide to GPOs),(Citation: Office 365 Partner Relationships),(Citation: Amazon S3 Security, 2019),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: MDMProfileConfigMacOS),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Mandiant M-Trends 2020),(Citation: Amazon  AWS Temporary Security Credentials)</t>
   </si>
   <si>
     <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,103 +783,103 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Replication ACL),(Citation: Microsoft MS14-025),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: SpecterOps Certified Pre Owned),(Citation: STIG krbtgt reset),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Trust Considerations Nov 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: SourceForge rkhunter),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015),(Citation: Mandiant Cloudy Logs 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Bugcrowd Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Microsoft CreateProcess),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: GitHub PSPKIAudit),(Citation: GitHub Certify),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Mandiant Azure AD Backdoors),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Github UACMe),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Sxstrace),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Kubernetes Hardening Guide),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Amazon S3 Security, 2019),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: SpecterOps Certified Pre Owned),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Vulnerability and Exploit Detector),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Powersploit),(Citation: Microsoft Dynamic-Link Library Security),(Citation: GitHub Bloodhound),(Citation: FireEye ADFS)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules),(Citation: win10_asr),(Citation: Microsoft ASR Nov 2017),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft driver block rules),(Citation: Enigma Reviving DDE Jan 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TCG Trusted Platform Module),(Citation: ESET LoJax Sept 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Credential Guard April 2017),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
-  </si>
-  <si>
-    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft ADV170021 Dec 2017),(Citation: TechNet Screensaver GP),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable DCOM),(Citation: GitHub MOTW),(Citation: TechNet Removable Media Control),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: SpecterOps Certified Pre Owned),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft BEC Campaign),(Citation: Gmail Delegation),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Disable Autorun),(Citation: Microsoft Disable Macros)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Primary Refresh Token),(Citation: Metcalf 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Amazon S3 Security, 2019)</t>
+    <t>(Citation: STIG krbtgt reset),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Replication ACL),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft MS14-025),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Mandiant Defend UNC2452 White Paper)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft AMSI June 2015),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack),(Citation: Comparitech Replay Attack)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
+  </si>
+  <si>
+    <t>(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Sxstrace),(Citation: Microsoft CreateProcess),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Mandiant Cloudy Logs 2023),(Citation: Kubernetes Hardening Guide),(Citation: Mandiant Azure AD Backdoors),(Citation: GitHub Bloodhound),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Github UACMe),(Citation: SpecterOps Certified Pre Owned),(Citation: GitHub PSPKIAudit),(Citation: Microsoft Get-InboxRule),(Citation: FireEye ADFS),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: MagicWeb),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Powersploit),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: GitHub Certify),(Citation: Vulnerability and Exploit Detector),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Manage Mail Flow Rules 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft driver block rules),(Citation: win10_asr),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation)</t>
+  </si>
+  <si>
+    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry),(Citation: applescript signing)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Credential Guard April 2017),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
+  </si>
+  <si>
+    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP)</t>
+  </si>
+  <si>
+    <t>(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft BEC Campaign),(Citation: ADSecurity Windows Secure Baseline),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: GitHub MOTW),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: TechNet Screensaver GP),(Citation: SpecterOps Certified Pre Owned),(Citation: Gmail Delegation),(Citation: Microsoft Disable DCOM),(Citation: Microsoft Disable Autorun),(Citation: TechNet Removable Media Control),(Citation: Microsoft Disable Macros),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft Network access Credential Manager),(Citation: BleepingComputer DDE Disabled in Word Dec 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Metcalf 2015),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: SpecterOps Certified Pre Owned)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: TechNet Applocker vs SRP),(Citation: Microsoft PowerShell CLM),(Citation: Kernel Self Protection Project),(Citation: Microsoft WDAC),(Citation: Corio 2008),(Citation: Default VBS macros Blocking ),(Citation: Microsoft Windows Defender Application Control),(Citation: Kubernetes Hardening Guide),(Citation: LKM loading kernel restrictions),(Citation: Windows Commands JPCERT),(Citation: Wikibooks Grsecurity),(Citation: Kubernetes Security Context),(Citation: NSA MS AppLocker),(Citation: file_upload_attacks_pt2),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft Using Software Restriction ),(Citation: Microsoft Application Lockdown),(Citation: Dormann Dangers of VHD 2019),(Citation: Technospot Chrome Extensions GP),(Citation: Beechey 2010),(Citation: Kernel.org Restrict Kernel Module),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Driver Block Rules),(Citation: SANS Application Whitelisting)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft Windows Defender Application Control),(Citation: Secure Host Baseline EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: Beechey 2010),(Citation: TechNet Moving Beyond EMET),(Citation: Windows Commands JPCERT),(Citation: Corio 2008)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft SMB Packet Signing),(Citation: Juniper DAI 2020),(Citation: ntlm_relaying_kerberos_del),(Citation: RedLock Instance Metadata API 2018),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: CERT-EU DDoS March 2017),(Citation: Microsoft Preventing SMB),(Citation: Secure Ideas SMB Relay),(Citation: byt3bl33d3r NTLM Relaying),(Citation: US-CERT SMB Security),(Citation: Cisco ARP Poisoning Mitigation 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect),(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access),(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x)</t>
-  </si>
-  <si>
-    <t>(Citation: Expel IO Evil in AWS),(Citation: Berkley Secure),(Citation: CISA MFA PrintNightmare),(Citation: AWS - IAM Console Best Practices),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Evilginx 2 July 2018),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft - Device Registration),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Amazon S3 Security, 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT-TA18-106A),(Citation: dhcp_serv_op_events),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: University of Birmingham C2),(Citation: Anomali Template Injection MAR 2018),(Citation: Cybereason Dissecting DGAs),(Citation: Akamai DGA Mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Server Operator Scheduled Task),(Citation: TechNet RDP NLA),(Citation: TechNet Removable Media Control),(Citation: Microsoft BITS),(Citation: HowToGeek ShowExtension),(Citation: EnableMPRNotifications),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Windows RDP Sessions),(Citation: Tilbury Windows Credentials),(Citation: Microsoft WDigest Mit),(Citation: reagentc_cmd),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Seqrite DoubleExtension)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: NIST 800-63-3),(Citation: store_pwd_rev_enc),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Replace Process Token),(Citation: Mandiant Azure Run Command 2021),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: AWS Setting Up Run Command),(Citation: Tilbury Windows Credentials),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Process Wide Com Keys),(Citation: Kubernetes Admission Controllers),(Citation: FireEye WMI 2015),(Citation: Microsoft Remote Use of Local),(Citation: MagicWeb),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft PS JEA),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft COM ACL),(Citation: Microsoft runas),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Create Token),(Citation: Microsoft Securing Privileged Access),(Citation: Kubernetes Service Accounts),(Citation: Microsoft System Wide Com Keys),(Citation: TechNet Credential Theft),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: TechNet Scheduling Priority),(Citation: TechNet Least Privilege),(Citation: ADSecurity AD Kerberos Attacks),(Citation: FireEye ADFS),(Citation: Microsoft Security Alerts for Azure AD Roles)</t>
-  </si>
-  <si>
-    <t>(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014)</t>
+    <t>(Citation: SANS Application Whitelisting),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft Using Software Restriction ),(Citation: NSA MS AppLocker),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft Driver Block Rules),(Citation: Kernel Self Protection Project),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft WDAC),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Application Lockdown),(Citation: Kubernetes Security Context),(Citation: Technospot Chrome Extensions GP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kernel.org Restrict Kernel Module),(Citation: Kubernetes Hardening Guide),(Citation: Windows Commands JPCERT),(Citation: LKM loading kernel restrictions),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Wikibooks Grsecurity),(Citation: Dormann Dangers of VHD 2019),(Citation: Default VBS macros Blocking ),(Citation: Corio 2008),(Citation: Microsoft ISAPICGIRestriction 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: Corio 2008),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Windows Commands JPCERT),(Citation: TechNet Moving Beyond EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: Beechey 2010)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: CERT-EU DDoS March 2017),(Citation: Juniper DAI 2020),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: RedLock Instance Metadata API 2018),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT SMB Security),(Citation: byt3bl33d3r NTLM Relaying),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft SMB Packet Signing),(Citation: Microsoft Preventing SMB)</t>
+  </si>
+  <si>
+    <t>(Citation: Wikipedia 802.1x),(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway),(Citation: Kubernetes Cloud Native Security),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect)</t>
+  </si>
+  <si>
+    <t>(Citation: AWS - IAM Console Best Practices),(Citation: Berkley Secure),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: CISA MFA PrintNightmare),(Citation: Amazon S3 Security, 2019),(Citation: Evilginx 2 July 2018),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Microsoft - Device Registration)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT-TA18-106A),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation),(Citation: Anomali Template Injection MAR 2018),(Citation: University of Birmingham C2),(Citation: dhcp_serv_op_events),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cybereason Dissecting DGAs)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft BITS),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft WDigest Mit),(Citation: Seqrite DoubleExtension),(Citation: HowToGeek ShowExtension),(Citation: Tilbury Windows Credentials),(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: reagentc_cmd),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: TechNet Server Operator Scheduled Task),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Removable Media Control),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: EnableMPRNotifications),(Citation: Windows RDP Sessions),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: TechNet RDP NLA)</t>
+  </si>
+  <si>
+    <t>(Citation: NIST 800-63-3),(Citation: AWS - IAM Console Best Practices),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: store_pwd_rev_enc),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Process Wide Com Keys),(Citation: TechNet Credential Theft),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: FireEye WMI 2015),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft PS JEA),(Citation: AWS Setting Up Run Command),(Citation: Tilbury Windows Credentials),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Remote Use of Local),(Citation: MagicWeb),(Citation: Kubernetes Admission Controllers),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft COM ACL),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Replace Process Token),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Kubernetes Service Accounts),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Least Privilege),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft runas),(Citation: TechNet Scheduling Priority),(Citation: Microsoft Azure security baseline for Azure Active Directory)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA),(Citation: Graeber 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft W32Time May 2017),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft ETW May 2018),(Citation: win_xml_evt_log),(Citation: piazza launch agent mitigation),(Citation: create_sym_links),(Citation: cisco_deploy_rsa_keys)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging)</t>
+    <t>(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft ETW May 2018),(Citation: create_sym_links),(Citation: win_xml_evt_log),(Citation: Microsoft W32Time May 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security)</t>
+  </si>
+  <si>
+    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: Cisco Securing SNMP),(Citation: ACSC Email Spoofing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CloudSploit - Unused AWS Regions),(Citation: Wikipedia HPKP),(Citation: Palo Alto Office Test Sofacy),(Citation: Enigma Reviving DDE Jan 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Anti Spoofing),(Citation: Chromium HSTS)</t>
-  </si>
-  <si>
-    <t>(Citation: Github UACMe),(Citation: SensePost Outlook Home Page),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: Cisco Blog Legacy Device Attacks)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
-  </si>
-  <si>
-    <t>(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Kubernetes RBAC),(Citation: Apple TN2459 Kernel Extensions),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft WMI Filters),(Citation: Symantec BITS May 2007),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft ETW May 2018),(Citation: Microsoft GPO Security Filtering),(Citation: Wald0 Guide to GPOs),(Citation: Office 365 Partner Relationships),(Citation: Amazon S3 Security, 2019),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: MDMProfileConfigMacOS),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Mandiant M-Trends 2020),(Citation: Amazon  AWS Temporary Security Credentials)</t>
+    <t>(Citation: Palo Alto Office Test Sofacy),(Citation: CloudSploit - Unused AWS Regions),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft Anti Spoofing),(Citation: ACSC Email Spoofing),(Citation: Cisco Securing SNMP),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Wikipedia HPKP),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Chromium HSTS),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: SensePost Outlook Home Page),(Citation: SensePost Outlook Forms),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco Blog Legacy Device Attacks),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: Github UACMe)</t>
+  </si>
+  <si>
+    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
+  </si>
+  <si>
+    <t>(Citation: MDMProfileConfigMacOS),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes Hardening Guide),(Citation: Wald0 Guide to GPOs),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Symantec BITS May 2007),(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft ETW May 2018),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft WMI Filters),(Citation: Office 365 Partner Relationships),(Citation: Microsoft GPO Security Filtering),(Citation: Apple TN2459 Kernel Extensions),(Citation: Kubernetes RBAC)</t>
   </si>
   <si>
     <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,106 +783,106 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: STIG krbtgt reset),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Replication ACL),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft MS14-025),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Mandiant Defend UNC2452 White Paper)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft AMSI June 2015),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack),(Citation: Comparitech Replay Attack)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
-  </si>
-  <si>
-    <t>(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Sxstrace),(Citation: Microsoft CreateProcess),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Mandiant Cloudy Logs 2023),(Citation: Kubernetes Hardening Guide),(Citation: Mandiant Azure AD Backdoors),(Citation: GitHub Bloodhound),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Github UACMe),(Citation: SpecterOps Certified Pre Owned),(Citation: GitHub PSPKIAudit),(Citation: Microsoft Get-InboxRule),(Citation: FireEye ADFS),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: MagicWeb),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Powersploit),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: GitHub Certify),(Citation: Vulnerability and Exploit Detector),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Manage Mail Flow Rules 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft driver block rules),(Citation: win10_asr),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation)</t>
-  </si>
-  <si>
-    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry),(Citation: applescript signing)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Credential Guard April 2017),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
-  </si>
-  <si>
-    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP)</t>
-  </si>
-  <si>
-    <t>(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft BEC Campaign),(Citation: ADSecurity Windows Secure Baseline),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: GitHub MOTW),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: TechNet Screensaver GP),(Citation: SpecterOps Certified Pre Owned),(Citation: Gmail Delegation),(Citation: Microsoft Disable DCOM),(Citation: Microsoft Disable Autorun),(Citation: TechNet Removable Media Control),(Citation: Microsoft Disable Macros),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft Network access Credential Manager),(Citation: BleepingComputer DDE Disabled in Word Dec 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Metcalf 2015),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: SpecterOps Certified Pre Owned)</t>
+    <t>(Citation: Microsoft MS14-025),(Citation: Microsoft Replication ACL),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: STIG krbtgt reset),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: ADSecurity Mimikatz DCSync)</t>
+  </si>
+  <si>
+    <t>(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
+  </si>
+  <si>
+    <t>(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Powersploit),(Citation: MagicWeb),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Kubernetes Hardening Guide),(Citation: Vulnerability and Exploit Detector),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Github UACMe),(Citation: Microsoft Sxstrace),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Cloudy Logs 2023),(Citation: Mandiant Azure AD Backdoors),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: FireEye ADFS),(Citation: GitHub Bloodhound),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft CreateProcess),(Citation: GitHub Certify),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: GitHub PSPKIAudit),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2)</t>
+  </si>
+  <si>
+    <t>(Citation: win10_asr),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Nov 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TechNet Secure Boot Process),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: Content trust in Azure Container Registry),(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub SHB Credential Guard),(Citation: TechNet Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
+  </si>
+  <si>
+    <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Disable DCOM),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: ADSecurity Windows Secure Baseline),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Disable Autorun),(Citation: TechNet Screensaver GP),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Amazon AWS IMDS V2),(Citation: GitHub MOTW),(Citation: Gmail Delegation),(Citation: TechNet Removable Media Control),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable Macros),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft BEC Campaign),(Citation: MRWLabs Office Persistence Add-ins),(Citation: BleepingComputer DDE Disabled in Word Dec 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: Metcalf 2015),(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: SANS Application Whitelisting),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft Using Software Restriction ),(Citation: NSA MS AppLocker),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft Driver Block Rules),(Citation: Kernel Self Protection Project),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft WDAC),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Application Lockdown),(Citation: Kubernetes Security Context),(Citation: Technospot Chrome Extensions GP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kernel.org Restrict Kernel Module),(Citation: Kubernetes Hardening Guide),(Citation: Windows Commands JPCERT),(Citation: LKM loading kernel restrictions),(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Wikibooks Grsecurity),(Citation: Dormann Dangers of VHD 2019),(Citation: Default VBS macros Blocking ),(Citation: Corio 2008),(Citation: Microsoft ISAPICGIRestriction 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: Corio 2008),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Windows Commands JPCERT),(Citation: TechNet Moving Beyond EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: Beechey 2010)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: CERT-EU DDoS March 2017),(Citation: Juniper DAI 2020),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: RedLock Instance Metadata API 2018),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT SMB Security),(Citation: byt3bl33d3r NTLM Relaying),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft SMB Packet Signing),(Citation: Microsoft Preventing SMB)</t>
-  </si>
-  <si>
-    <t>(Citation: Wikipedia 802.1x),(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway),(Citation: Kubernetes Cloud Native Security),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect)</t>
-  </si>
-  <si>
-    <t>(Citation: AWS - IAM Console Best Practices),(Citation: Berkley Secure),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: CISA MFA PrintNightmare),(Citation: Amazon S3 Security, 2019),(Citation: Evilginx 2 July 2018),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Microsoft - Device Registration)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT-TA18-106A),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation),(Citation: Anomali Template Injection MAR 2018),(Citation: University of Birmingham C2),(Citation: dhcp_serv_op_events),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cybereason Dissecting DGAs)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft BITS),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft WDigest Mit),(Citation: Seqrite DoubleExtension),(Citation: HowToGeek ShowExtension),(Citation: Tilbury Windows Credentials),(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: reagentc_cmd),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: TechNet Server Operator Scheduled Task),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet Removable Media Control),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: EnableMPRNotifications),(Citation: Windows RDP Sessions),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: TechNet RDP NLA)</t>
-  </si>
-  <si>
-    <t>(Citation: NIST 800-63-3),(Citation: AWS - IAM Console Best Practices),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: store_pwd_rev_enc),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Process Wide Com Keys),(Citation: TechNet Credential Theft),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: FireEye WMI 2015),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft PS JEA),(Citation: AWS Setting Up Run Command),(Citation: Tilbury Windows Credentials),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Remote Use of Local),(Citation: MagicWeb),(Citation: Kubernetes Admission Controllers),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft COM ACL),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Replace Process Token),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Kubernetes Service Accounts),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Least Privilege),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft runas),(Citation: TechNet Scheduling Priority),(Citation: Microsoft Azure security baseline for Azure Active Directory)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA),(Citation: Graeber 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014)</t>
+    <t>(Citation: TechNet Applocker vs SRP),(Citation: LKM loading kernel restrictions),(Citation: Beechey 2010),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Kernel Self Protection Project),(Citation: Kubernetes Hardening Guide),(Citation: Kernel.org Restrict Kernel Module),(Citation: Windows Commands JPCERT),(Citation: Increasing Linux kernel integrity),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Default VBS macros Blocking ),(Citation: Microsoft Using Software Restriction ),(Citation: Technospot Chrome Extensions GP),(Citation: NSA MS AppLocker),(Citation: SANS Application Whitelisting),(Citation: Kubernetes Security Context),(Citation: Microsoft Driver Block Rules),(Citation: Wikibooks Grsecurity),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Application Lockdown),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft PowerShell CLM),(Citation: Dormann Dangers of VHD 2019),(Citation: Corio 2008),(Citation: Microsoft WDAC)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Commands JPCERT),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Wikipedia Control Flow Integrity),(Citation: Microsoft Windows Defender Application Control),(Citation: TechNet Moving Beyond EMET),(Citation: Beechey 2010),(Citation: Secure Host Baseline EMET),(Citation: Corio 2008)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Preventing SMB),(Citation: Microsoft SMB Packet Signing),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: ntlm_relaying_kerberos_del),(Citation: Juniper DAI 2020),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT SMB Security),(Citation: RedLock Instance Metadata API 2018),(Citation: US-CERT APT Energy Oct 2017),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Secure Ideas SMB Relay)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet RDP Gateway),(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Kubernetes Cloud Native Security)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Amazon S3 Security, 2019),(Citation: AWS - IAM Console Best Practices),(Citation: Berkley Secure),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Microsoft - Device Registration),(Citation: CISA MFA PrintNightmare),(Citation: Evilginx 2 July 2018),(Citation: Expel IO Evil in AWS)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason Dissecting DGAs),(Citation: University of Birmingham C2),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: dhcp_serv_op_events),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: UCF STIG Elevation Account Enumeration),(Citation: HowToGeek ShowExtension),(Citation: Seqrite DoubleExtension),(Citation: TechNet Server Operator Scheduled Task),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Tilbury Windows Credentials),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet Removable Media Control),(Citation: EnableMPRNotifications),(Citation: TechNet RDP NLA),(Citation: reagentc_cmd),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft BITS)</t>
+  </si>
+  <si>
+    <t>(Citation: store_pwd_rev_enc),(Citation: AWS - IAM Console Best Practices),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Create Token),(Citation: TechNet Least Privilege),(Citation: Microsoft PS JEA),(Citation: Kubernetes Service Accounts),(Citation: MagicWeb),(Citation: Microsoft Remote Use of Local),(Citation: FireEye WMI 2015),(Citation: TechNet Scheduling Priority),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Kubernetes Hardening Guide),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Mandiant Azure Run Command 2021),(Citation: FireEye ADFS),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Tilbury Windows Credentials),(Citation: Microsoft runas),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft COM ACL),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Replace Process Token),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft System Wide Com Keys),(Citation: TechNet Credential Theft),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Protecting Microsoft 365 From On-Premises Attacks)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Graeber 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft ETW May 2018),(Citation: create_sym_links),(Citation: win_xml_evt_log),(Citation: Microsoft W32Time May 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security)</t>
-  </si>
-  <si>
-    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals)</t>
+    <t>(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links),(Citation: Microsoft ETW May 2018),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: win_xml_evt_log)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: Palo Alto Office Test Sofacy),(Citation: CloudSploit - Unused AWS Regions),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft Anti Spoofing),(Citation: ACSC Email Spoofing),(Citation: Cisco Securing SNMP),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Wikipedia HPKP),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Chromium HSTS),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: SensePost Outlook Home Page),(Citation: SensePost Outlook Forms),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco Blog Legacy Device Attacks),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: Github UACMe)</t>
-  </si>
-  <si>
-    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
-  </si>
-  <si>
-    <t>(Citation: MDMProfileConfigMacOS),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes Hardening Guide),(Citation: Wald0 Guide to GPOs),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Symantec BITS May 2007),(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft ETW May 2018),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft WMI Filters),(Citation: Office 365 Partner Relationships),(Citation: Microsoft GPO Security Filtering),(Citation: Apple TN2459 Kernel Extensions),(Citation: Kubernetes RBAC)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>
+    <t>(Citation: ACSC Email Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Chromium HSTS),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Enigma Reviving DDE Jan 2018),(Citation: CloudSploit - Unused AWS Regions),(Citation: Palo Alto Office Test Sofacy),(Citation: Microsoft Anti Spoofing),(Citation: Wikipedia HPKP),(Citation: Cisco Securing SNMP),(Citation: GitHub Disable DDEAUTO Oct 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: SensePost Outlook Forms),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: MDMProfileConfigMacOS),(Citation: Mandiant M-Trends 2020),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft WMI Filters),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Microsoft GPO Security Filtering),(Citation: Microsoft ETW May 2018),(Citation: Expel IO Evil in AWS),(Citation: Wald0 Guide to GPOs),(Citation: Symantec BITS May 2007),(Citation: Amazon S3 Security, 2019),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Office 365 Partner Relationships),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Apple TN2459 Kernel Extensions),(Citation: Kubernetes RBAC)</t>
+  </si>
+  <si>
+    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,106 +783,106 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft MS14-025),(Citation: Microsoft Replication ACL),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: STIG krbtgt reset),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: ADSecurity Mimikatz DCSync)</t>
-  </si>
-  <si>
-    <t>(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
-  </si>
-  <si>
-    <t>(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Powersploit),(Citation: MagicWeb),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Kubernetes Hardening Guide),(Citation: Vulnerability and Exploit Detector),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Github UACMe),(Citation: Microsoft Sxstrace),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Cloudy Logs 2023),(Citation: Mandiant Azure AD Backdoors),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: FireEye ADFS),(Citation: GitHub Bloodhound),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft CreateProcess),(Citation: GitHub Certify),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: GitHub PSPKIAudit),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2)</t>
-  </si>
-  <si>
-    <t>(Citation: win10_asr),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Nov 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TechNet Secure Boot Process),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: Content trust in Azure Container Registry),(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Docker)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub SHB Credential Guard),(Citation: TechNet Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
-  </si>
-  <si>
-    <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Disable DCOM),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: ADSecurity Windows Secure Baseline),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Disable Autorun),(Citation: TechNet Screensaver GP),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Amazon AWS IMDS V2),(Citation: GitHub MOTW),(Citation: Gmail Delegation),(Citation: TechNet Removable Media Control),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable Macros),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft BEC Campaign),(Citation: MRWLabs Office Persistence Add-ins),(Citation: BleepingComputer DDE Disabled in Word Dec 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: Metcalf 2015),(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
+    <t>(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Replication ACL),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: STIG krbtgt reset),(Citation: Microsoft MS14-025),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Netdom Trust Sept 2012)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015),(Citation: SourceForge rkhunter)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack),(Citation: Comparitech Replay Attack)</t>
+  </si>
+  <si>
+    <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Mandiant Cloudy Logs 2023),(Citation: Vulnerability and Exploit Detector),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: GitHub PSPKIAudit),(Citation: Microsoft CreateProcess),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: MagicWeb),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Amazon S3 Security, 2019),(Citation: Kubernetes Hardening Guide),(Citation: Mandiant Azure AD Backdoors),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Powersploit),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Sxstrace),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: SpecterOps Certified Pre Owned),(Citation: GitHub Bloodhound),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Github UACMe),(Citation: GitHub Certify)</t>
+  </si>
+  <si>
+    <t>(Citation: win10_asr),(Citation: Malicious Driver Reporting Center),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules),(Citation: Microsoft ASR Nov 2017),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules)</t>
+  </si>
+  <si>
+    <t>(Citation: ESET LoJax Sept 2018),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: applescript signing)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
+  </si>
+  <si>
+    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft Disable Macros),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft Disable Autorun),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Gmail Delegation),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: GitHub MOTW),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: TechNet Removable Media Control),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: TechNet Screensaver GP),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Amazon AWS IMDS V2),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable DCOM),(Citation: Microsoft BEC Campaign),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Windows Secure Baseline)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: Microsoft Primary Refresh Token)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: TechNet Applocker vs SRP),(Citation: LKM loading kernel restrictions),(Citation: Beechey 2010),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Kernel Self Protection Project),(Citation: Kubernetes Hardening Guide),(Citation: Kernel.org Restrict Kernel Module),(Citation: Windows Commands JPCERT),(Citation: Increasing Linux kernel integrity),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Default VBS macros Blocking ),(Citation: Microsoft Using Software Restriction ),(Citation: Technospot Chrome Extensions GP),(Citation: NSA MS AppLocker),(Citation: SANS Application Whitelisting),(Citation: Kubernetes Security Context),(Citation: Microsoft Driver Block Rules),(Citation: Wikibooks Grsecurity),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Application Lockdown),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft PowerShell CLM),(Citation: Dormann Dangers of VHD 2019),(Citation: Corio 2008),(Citation: Microsoft WDAC)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Commands JPCERT),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Wikipedia Control Flow Integrity),(Citation: Microsoft Windows Defender Application Control),(Citation: TechNet Moving Beyond EMET),(Citation: Beechey 2010),(Citation: Secure Host Baseline EMET),(Citation: Corio 2008)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Preventing SMB),(Citation: Microsoft SMB Packet Signing),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: ntlm_relaying_kerberos_del),(Citation: Juniper DAI 2020),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT SMB Security),(Citation: RedLock Instance Metadata API 2018),(Citation: US-CERT APT Energy Oct 2017),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Secure Ideas SMB Relay)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet RDP Gateway),(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Kubernetes Cloud Native Security)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Amazon S3 Security, 2019),(Citation: AWS - IAM Console Best Practices),(Citation: Berkley Secure),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Microsoft - Device Registration),(Citation: CISA MFA PrintNightmare),(Citation: Evilginx 2 July 2018),(Citation: Expel IO Evil in AWS)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason Dissecting DGAs),(Citation: University of Birmingham C2),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: dhcp_serv_op_events),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: UCF STIG Elevation Account Enumeration),(Citation: HowToGeek ShowExtension),(Citation: Seqrite DoubleExtension),(Citation: TechNet Server Operator Scheduled Task),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Tilbury Windows Credentials),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet Removable Media Control),(Citation: EnableMPRNotifications),(Citation: TechNet RDP NLA),(Citation: reagentc_cmd),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft BITS)</t>
-  </si>
-  <si>
-    <t>(Citation: store_pwd_rev_enc),(Citation: AWS - IAM Console Best Practices),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Create Token),(Citation: TechNet Least Privilege),(Citation: Microsoft PS JEA),(Citation: Kubernetes Service Accounts),(Citation: MagicWeb),(Citation: Microsoft Remote Use of Local),(Citation: FireEye WMI 2015),(Citation: TechNet Scheduling Priority),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Kubernetes Hardening Guide),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Mandiant Azure Run Command 2021),(Citation: FireEye ADFS),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Tilbury Windows Credentials),(Citation: Microsoft runas),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft COM ACL),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Replace Process Token),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft System Wide Com Keys),(Citation: TechNet Credential Theft),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Protecting Microsoft 365 From On-Premises Attacks)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Graeber 2014)</t>
+    <t>(Citation: Kernel Self Protection Project),(Citation: Wikibooks Grsecurity),(Citation: NSA MS AppLocker),(Citation: Microsoft Driver Block Rules),(Citation: LKM loading kernel restrictions),(Citation: Technospot Chrome Extensions GP),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft Windows Defender Application Control),(Citation: Beechey 2010),(Citation: Microsoft WDAC),(Citation: Microsoft Application Lockdown),(Citation: Kubernetes Hardening Guide),(Citation: Kernel.org Restrict Kernel Module),(Citation: Microsoft Using Software Restriction ),(Citation: Kubernetes Security Context),(Citation: Default VBS macros Blocking ),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: file_upload_attacks_pt2),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: SANS Application Whitelisting),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Dormann Dangers of VHD 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Windows Defender Application Control),(Citation: Beechey 2010),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: Corio 2008),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Windows Commands JPCERT)</t>
+  </si>
+  <si>
+    <t>(Citation: ntlm_relaying_kerberos_del),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: US-CERT APT Energy Oct 2017),(Citation: CERT-EU DDoS March 2017),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT SMB Security),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Juniper DAI 2020),(Citation: Microsoft Preventing SMB),(Citation: RedLock Instance Metadata API 2018),(Citation: Secure Ideas SMB Relay)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Microsoft AKS Azure AD 2023),(Citation: Kubernetes API Control Access),(Citation: Wikipedia 802.1x),(Citation: Docker Daemon Socket Protect),(Citation: TechNet RDP Gateway)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Amazon S3 Security, 2019),(Citation: CISA MFA PrintNightmare),(Citation: Evilginx 2 July 2018),(Citation: Microsoft - Device Registration),(Citation: AWS - IAM Console Best Practices),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Berkley Secure),(Citation: Mandiant APT29 Microsoft 365 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: dhcp_serv_op_events),(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Firewall Design),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft BITS),(Citation: EnableMPRNotifications),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Seqrite DoubleExtension),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: TechNet Server Operator Scheduled Task),(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechNet Removable Media Control),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Tilbury Windows Credentials),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: TechNet RDP NLA),(Citation: HowToGeek ShowExtension),(Citation: reagentc_cmd)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc),(Citation: AWS - IAM Console Best Practices)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Scheduling Priority),(Citation: FireEye ADFS),(Citation: Mandiant Azure Run Command 2021),(Citation: TechNet Least Privilege),(Citation: CyberArk Labs Safe Mode 2016),(Citation: MagicWeb),(Citation: Microsoft runas),(Citation: Microsoft Replace Process Token),(Citation: TechNet Credential Theft),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Microsoft Securing Privileged Access),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Kubernetes Hardening Guide),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft PS JEA),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Remote Use of Local),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft COM ACL),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Process Wide Com Keys),(Citation: Tilbury Windows Credentials),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Kubernetes Service Accounts),(Citation: FireEye WMI 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links),(Citation: Microsoft ETW May 2018),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: win_xml_evt_log)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017)</t>
+    <t>(Citation: win_xml_evt_log),(Citation: Microsoft ETW May 2018),(Citation: create_sym_links),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft W32Time May 2017),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: ACSC Email Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Chromium HSTS),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Enigma Reviving DDE Jan 2018),(Citation: CloudSploit - Unused AWS Regions),(Citation: Palo Alto Office Test Sofacy),(Citation: Microsoft Anti Spoofing),(Citation: Wikipedia HPKP),(Citation: Cisco Securing SNMP),(Citation: GitHub Disable DDEAUTO Oct 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: SensePost Outlook Forms),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page)</t>
+    <t>(Citation: CyberArk Labs Safe Mode 2016),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: ACSC Email Spoofing),(Citation: CloudSploit - Unused AWS Regions),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Anti Spoofing),(Citation: Wikipedia HPKP),(Citation: Chromium HSTS),(Citation: Cisco Securing SNMP),(Citation: Enigma Reviving DDE Jan 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Forms),(Citation: SensePost Outlook Home Page),(Citation: Github UACMe),(Citation: Cisco Blog Legacy Device Attacks),(Citation: MS14-025)</t>
   </si>
   <si>
     <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
   </si>
   <si>
-    <t>(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: MDMProfileConfigMacOS),(Citation: Mandiant M-Trends 2020),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft WMI Filters),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Microsoft GPO Security Filtering),(Citation: Microsoft ETW May 2018),(Citation: Expel IO Evil in AWS),(Citation: Wald0 Guide to GPOs),(Citation: Symantec BITS May 2007),(Citation: Amazon S3 Security, 2019),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Office 365 Partner Relationships),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Apple TN2459 Kernel Extensions),(Citation: Kubernetes RBAC)</t>
-  </si>
-  <si>
-    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>
+    <t>(Citation: Mandiant M-Trends 2020),(Citation: MDMProfileConfigMacOS),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft WMI Filters),(Citation: Microsoft ETW May 2018),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes RBAC),(Citation: Microsoft GPO Security Filtering),(Citation: Apple TN2459 Kernel Extensions),(Citation: Expel IO Evil in AWS),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: UCF STIG Symbolic Links),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Wald0 Guide to GPOs),(Citation: Office 365 Partner Relationships),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Symantec BITS May 2007)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,85 +783,85 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Replication ACL),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: STIG krbtgt reset),(Citation: Microsoft MS14-025),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Netdom Trust Sept 2012)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015),(Citation: SourceForge rkhunter)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack),(Citation: Comparitech Replay Attack)</t>
+    <t>(Citation: STIG krbtgt reset),(Citation: Microsoft MS14-025),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: AdSecurity DCSync Sept 2015),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Replication ACL),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: ADSecurity Mimikatz DCSync)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Bugcrowd Replay Attack),(Citation: Comparitech Replay Attack)</t>
   </si>
   <si>
     <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Mandiant Cloudy Logs 2023),(Citation: Vulnerability and Exploit Detector),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: GitHub PSPKIAudit),(Citation: Microsoft CreateProcess),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: MagicWeb),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Amazon S3 Security, 2019),(Citation: Kubernetes Hardening Guide),(Citation: Mandiant Azure AD Backdoors),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Powersploit),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Sxstrace),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: SpecterOps Certified Pre Owned),(Citation: GitHub Bloodhound),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Github UACMe),(Citation: GitHub Certify)</t>
-  </si>
-  <si>
-    <t>(Citation: win10_asr),(Citation: Malicious Driver Reporting Center),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules),(Citation: Microsoft ASR Nov 2017),(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft_rec_block_rules)</t>
-  </si>
-  <si>
-    <t>(Citation: ESET LoJax Sept 2018),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: applescript signing)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
-  </si>
-  <si>
-    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft Disable Macros),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft Disable Autorun),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Gmail Delegation),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: GitHub MOTW),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: TechNet Removable Media Control),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: TechNet Screensaver GP),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Amazon AWS IMDS V2),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Disable DCOM),(Citation: Microsoft BEC Campaign),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Windows Secure Baseline)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: Microsoft Primary Refresh Token)</t>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Kubernetes Hardening Guide),(Citation: GitHub Bloodhound),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Microsoft CreateProcess),(Citation: Github UACMe),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Preauthentication Jul 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Cloudy Logs 2023),(Citation: Mandiant Azure AD Backdoors),(Citation: Microsoft Sxstrace),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Powersploit),(Citation: Vulnerability and Exploit Detector),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: FireEye ADFS),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: GitHub PSPKIAudit),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: MagicWeb),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: GitHub Certify)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft ASR Nov 2017),(Citation: Malicious Driver Reporting Center),(Citation: win10_asr),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: applescript signing),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Credential Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Enable Cred Guard April 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP),(Citation: Rhino S3 Ransomware Part 2)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Network access Credential Manager),(Citation: ADSecurity Windows Secure Baseline),(Citation: MRWLabs Office Persistence Add-ins),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Disable Autorun),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable Macros),(Citation: Microsoft BEC Campaign),(Citation: Microsoft Disable DCOM),(Citation: TechNet Screensaver GP),(Citation: GitHub MOTW),(Citation: Gmail Delegation),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft Disable VBA Jan 2020),(Citation: TechNet Removable Media Control)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Primary Refresh Token),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Google Cloud Encryption Key Rotation)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Kernel Self Protection Project),(Citation: Wikibooks Grsecurity),(Citation: NSA MS AppLocker),(Citation: Microsoft Driver Block Rules),(Citation: LKM loading kernel restrictions),(Citation: Technospot Chrome Extensions GP),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft Windows Defender Application Control),(Citation: Beechey 2010),(Citation: Microsoft WDAC),(Citation: Microsoft Application Lockdown),(Citation: Kubernetes Hardening Guide),(Citation: Kernel.org Restrict Kernel Module),(Citation: Microsoft Using Software Restriction ),(Citation: Kubernetes Security Context),(Citation: Default VBS macros Blocking ),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: file_upload_attacks_pt2),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: SANS Application Whitelisting),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Dormann Dangers of VHD 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Windows Defender Application Control),(Citation: Beechey 2010),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: Corio 2008),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Windows Commands JPCERT)</t>
-  </si>
-  <si>
-    <t>(Citation: ntlm_relaying_kerberos_del),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: US-CERT APT Energy Oct 2017),(Citation: CERT-EU DDoS March 2017),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT SMB Security),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Juniper DAI 2020),(Citation: Microsoft Preventing SMB),(Citation: RedLock Instance Metadata API 2018),(Citation: Secure Ideas SMB Relay)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Microsoft AKS Azure AD 2023),(Citation: Kubernetes API Control Access),(Citation: Wikipedia 802.1x),(Citation: Docker Daemon Socket Protect),(Citation: TechNet RDP Gateway)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Amazon S3 Security, 2019),(Citation: CISA MFA PrintNightmare),(Citation: Evilginx 2 July 2018),(Citation: Microsoft - Device Registration),(Citation: AWS - IAM Console Best Practices),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Berkley Secure),(Citation: Mandiant APT29 Microsoft 365 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: dhcp_serv_op_events),(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Firewall Design),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft BITS),(Citation: EnableMPRNotifications),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Seqrite DoubleExtension),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: TechNet Server Operator Scheduled Task),(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechNet Removable Media Control),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Tilbury Windows Credentials),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: TechNet RDP NLA),(Citation: HowToGeek ShowExtension),(Citation: reagentc_cmd)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc),(Citation: AWS - IAM Console Best Practices)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Scheduling Priority),(Citation: FireEye ADFS),(Citation: Mandiant Azure Run Command 2021),(Citation: TechNet Least Privilege),(Citation: CyberArk Labs Safe Mode 2016),(Citation: MagicWeb),(Citation: Microsoft runas),(Citation: Microsoft Replace Process Token),(Citation: TechNet Credential Theft),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Microsoft Securing Privileged Access),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Kubernetes Hardening Guide),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft PS JEA),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Remote Use of Local),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft COM ACL),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Process Wide Com Keys),(Citation: Tilbury Windows Credentials),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Kubernetes Service Accounts),(Citation: FireEye WMI 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014)</t>
+    <t>(Citation: Wikibooks Grsecurity),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Using Software Restriction ),(Citation: Corio 2008),(Citation: Beechey 2010),(Citation: NSA MS AppLocker),(Citation: LKM loading kernel restrictions),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft WDAC),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft Application Lockdown),(Citation: Technospot Chrome Extensions GP),(Citation: Windows Commands JPCERT),(Citation: Kubernetes Security Context),(Citation: Microsoft Windows Defender Application Control),(Citation: Kernel Self Protection Project),(Citation: Dormann Dangers of VHD 2019),(Citation: SANS Application Whitelisting),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Default VBS macros Blocking ),(Citation: Kernel.org Restrict Kernel Module),(Citation: Increasing Linux kernel integrity),(Citation: file_upload_attacks_pt2)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Windows Defender Application Control),(Citation: Wikipedia Control Flow Integrity),(Citation: Secure Host Baseline EMET),(Citation: Corio 2008),(Citation: Beechey 2010),(Citation: Windows Commands JPCERT),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: TechNet Moving Beyond EMET)</t>
+  </si>
+  <si>
+    <t>(Citation: Secure Ideas SMB Relay),(Citation: Microsoft Preventing SMB),(Citation: RedLock Instance Metadata API 2018),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Juniper DAI 2020),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: US-CERT SMB Security),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT APT Energy Oct 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Microsoft SMB Packet Signing),(Citation: ntlm_relaying_kerberos_del)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet RDP Gateway),(Citation: Kubernetes Cloud Native Security),(Citation: Docker Daemon Socket Protect),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Kubernetes API Control Access)</t>
+  </si>
+  <si>
+    <t>(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Evilginx 2 July 2018),(Citation: Berkley Secure),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: CISA MFA PrintNightmare),(Citation: Microsoft - Device Registration),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Amazon S3 Security, 2019),(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - TACACS)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: University of Birmingham C2),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: dhcp_serv_op_events),(Citation: Anomali Template Injection MAR 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Microsoft WDigest Mit),(Citation: EnableMPRNotifications),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Microsoft BITS),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: HowToGeek ShowExtension),(Citation: reagentc_cmd),(Citation: Seqrite DoubleExtension),(Citation: TechNet RDP NLA),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Windows RDP Sessions),(Citation: TechNet Server Operator Scheduled Task),(Citation: Tilbury Windows Credentials),(Citation: TechNet Removable Media Control)</t>
+  </si>
+  <si>
+    <t>(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Install Password Filter n.d),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft runas),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Remote Use of Local),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Replace Process Token),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft System Wide Com Keys),(Citation: Tilbury Windows Credentials),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: FireEye WMI 2015),(Citation: MagicWeb),(Citation: ADSecurity AD Kerberos Attacks),(Citation: TechNet Scheduling Priority),(Citation: Microsoft COM ACL),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft PS JEA),(Citation: Microsoft Create Token),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: TechNet Credential Theft),(Citation: AWS Setting Up Run Command),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Securing Privileged Access),(Citation: FireEye ADFS),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Kubernetes Service Accounts),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Mandiant Azure Run Command 2021),(Citation: TechNet Least Privilege)</t>
+  </si>
+  <si>
+    <t>(Citation: Graeber 2014),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: win_xml_evt_log),(Citation: Microsoft ETW May 2018),(Citation: create_sym_links),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: Microsoft W32Time May 2017),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order)</t>
+    <t>(Citation: create_sym_links),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft ETW May 2018),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: win_xml_evt_log)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL)</t>
   </si>
   <si>
     <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging)</t>
@@ -870,19 +870,19 @@
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: CyberArk Labs Safe Mode 2016),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: ACSC Email Spoofing),(Citation: CloudSploit - Unused AWS Regions),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Anti Spoofing),(Citation: Wikipedia HPKP),(Citation: Chromium HSTS),(Citation: Cisco Securing SNMP),(Citation: Enigma Reviving DDE Jan 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Forms),(Citation: SensePost Outlook Home Page),(Citation: Github UACMe),(Citation: Cisco Blog Legacy Device Attacks),(Citation: MS14-025)</t>
+    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: ACSC Email Spoofing),(Citation: Palo Alto Office Test Sofacy),(Citation: Microsoft Anti Spoofing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Wikipedia HPKP),(Citation: CloudSploit - Unused AWS Regions),(Citation: Cisco Securing SNMP),(Citation: Enigma Reviving DDE Jan 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Chromium HSTS)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Home Page),(Citation: NSA Spotting),(Citation: SensePost Outlook Forms),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
   </si>
   <si>
     <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
   </si>
   <si>
-    <t>(Citation: Mandiant M-Trends 2020),(Citation: MDMProfileConfigMacOS),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft WMI Filters),(Citation: Microsoft ETW May 2018),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes RBAC),(Citation: Microsoft GPO Security Filtering),(Citation: Apple TN2459 Kernel Extensions),(Citation: Expel IO Evil in AWS),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: UCF STIG Symbolic Links),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Wald0 Guide to GPOs),(Citation: Office 365 Partner Relationships),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Symantec BITS May 2007)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>
+    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft ETW May 2018),(Citation: MDMProfileConfigMacOS),(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes Hardening Guide),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes RBAC),(Citation: Apple TN2459 Kernel Extensions),(Citation: Mandiant M-Trends 2020),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft WMI Filters),(Citation: Symantec BITS May 2007),(Citation: Wald0 Guide to GPOs),(Citation: Expel IO Evil in AWS),(Citation: Office 365 Partner Relationships),(Citation: Microsoft GPO Security Filtering),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft SolarWinds Customer Guidance)</t>
+  </si>
+  <si>
+    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,106 +783,106 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: STIG krbtgt reset),(Citation: Microsoft MS14-025),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: AdSecurity DCSync Sept 2015),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Replication ACL),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: ADSecurity Mimikatz DCSync)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Bugcrowd Replay Attack),(Citation: Comparitech Replay Attack)</t>
-  </si>
-  <si>
-    <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Kubernetes Hardening Guide),(Citation: GitHub Bloodhound),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Microsoft CreateProcess),(Citation: Github UACMe),(Citation: Microsoft Get-InboxRule),(Citation: Microsoft Preauthentication Jul 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Cloudy Logs 2023),(Citation: Mandiant Azure AD Backdoors),(Citation: Microsoft Sxstrace),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Powersploit),(Citation: Vulnerability and Exploit Detector),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: FireEye ADFS),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: GitHub PSPKIAudit),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: MagicWeb),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: GitHub Certify)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft ASR Nov 2017),(Citation: Malicious Driver Reporting Center),(Citation: win10_asr),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: TechNet Secure Boot Process),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: applescript signing),(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Credential Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Enable Cred Guard April 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP),(Citation: Rhino S3 Ransomware Part 2)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Network access Credential Manager),(Citation: ADSecurity Windows Secure Baseline),(Citation: MRWLabs Office Persistence Add-ins),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Disable Autorun),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable Macros),(Citation: Microsoft BEC Campaign),(Citation: Microsoft Disable DCOM),(Citation: TechNet Screensaver GP),(Citation: GitHub MOTW),(Citation: Gmail Delegation),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft Disable VBA Jan 2020),(Citation: TechNet Removable Media Control)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Primary Refresh Token),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Google Cloud Encryption Key Rotation)</t>
+    <t>(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft MS14-025),(Citation: Microsoft Replication ACL),(Citation: STIG krbtgt reset),(Citation: AdSecurity DCSync Sept 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Mimikatz DCSync),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Mandiant Defend UNC2452 White Paper)</t>
+  </si>
+  <si>
+    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015),(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Apple App Security Overview),(Citation: Comparitech Replay Attack),(Citation: FireEye DLL Side-Loading),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
+  </si>
+  <si>
+    <t>(Citation: Mandiant Azure AD Backdoors),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: GitHub Certify),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: SpecterOps Certified Pre Owned),(Citation: Kubernetes Hardening Guide),(Citation: Mandiant Cloudy Logs 2023),(Citation: Amazon S3 Security, 2019),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: MagicWeb),(Citation: Microsoft Get-InboxRule),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Powersploit),(Citation: FireEye ADFS),(Citation: Microsoft Sxstrace),(Citation: GitHub PSPKIAudit),(Citation: Github UACMe),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Microsoft CreateProcess),(Citation: GitHub Bloodhound),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Vulnerability and Exploit Detector)</t>
+  </si>
+  <si>
+    <t>(Citation: win10_asr),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Nov 2017),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules)</t>
+  </si>
+  <si>
+    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TechNet Secure Boot Process),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module)</t>
+  </si>
+  <si>
+    <t>(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry),(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Credential Guard April 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Removable Media Control),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft Disable Autorun),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable Macros),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: ITSyndicate Disabling PHP functions),(Citation: GitHub MOTW),(Citation: Microsoft Disable DCOM),(Citation: Microsoft BEC Campaign),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Gmail Delegation),(Citation: Symantec SSH and ssh-agent),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: TechNet Screensaver GP),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Disable VBA Jan 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Primary Refresh Token),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Azure Storage Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Metcalf 2015)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Wikibooks Grsecurity),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Using Software Restriction ),(Citation: Corio 2008),(Citation: Beechey 2010),(Citation: NSA MS AppLocker),(Citation: LKM loading kernel restrictions),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft WDAC),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft Application Lockdown),(Citation: Technospot Chrome Extensions GP),(Citation: Windows Commands JPCERT),(Citation: Kubernetes Security Context),(Citation: Microsoft Windows Defender Application Control),(Citation: Kernel Self Protection Project),(Citation: Dormann Dangers of VHD 2019),(Citation: SANS Application Whitelisting),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Default VBS macros Blocking ),(Citation: Kernel.org Restrict Kernel Module),(Citation: Increasing Linux kernel integrity),(Citation: file_upload_attacks_pt2)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Windows Defender Application Control),(Citation: Wikipedia Control Flow Integrity),(Citation: Secure Host Baseline EMET),(Citation: Corio 2008),(Citation: Beechey 2010),(Citation: Windows Commands JPCERT),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: TechNet Moving Beyond EMET)</t>
-  </si>
-  <si>
-    <t>(Citation: Secure Ideas SMB Relay),(Citation: Microsoft Preventing SMB),(Citation: RedLock Instance Metadata API 2018),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Juniper DAI 2020),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: US-CERT SMB Security),(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT APT Energy Oct 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Microsoft SMB Packet Signing),(Citation: ntlm_relaying_kerberos_del)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet RDP Gateway),(Citation: Kubernetes Cloud Native Security),(Citation: Docker Daemon Socket Protect),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Kubernetes API Control Access)</t>
-  </si>
-  <si>
-    <t>(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Evilginx 2 July 2018),(Citation: Berkley Secure),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: CISA MFA PrintNightmare),(Citation: Microsoft - Device Registration),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Amazon S3 Security, 2019),(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - TACACS)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: University of Birmingham C2),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: dhcp_serv_op_events),(Citation: Anomali Template Injection MAR 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Microsoft WDigest Mit),(Citation: EnableMPRNotifications),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Microsoft BITS),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: HowToGeek ShowExtension),(Citation: reagentc_cmd),(Citation: Seqrite DoubleExtension),(Citation: TechNet RDP NLA),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Windows RDP Sessions),(Citation: TechNet Server Operator Scheduled Task),(Citation: Tilbury Windows Credentials),(Citation: TechNet Removable Media Control)</t>
-  </si>
-  <si>
-    <t>(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Install Password Filter n.d),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft runas),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Remote Use of Local),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Replace Process Token),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft System Wide Com Keys),(Citation: Tilbury Windows Credentials),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: FireEye WMI 2015),(Citation: MagicWeb),(Citation: ADSecurity AD Kerberos Attacks),(Citation: TechNet Scheduling Priority),(Citation: Microsoft COM ACL),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft PS JEA),(Citation: Microsoft Create Token),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: TechNet Credential Theft),(Citation: AWS Setting Up Run Command),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Securing Privileged Access),(Citation: FireEye ADFS),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Kubernetes Service Accounts),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Mandiant Azure Run Command 2021),(Citation: TechNet Least Privilege)</t>
-  </si>
-  <si>
-    <t>(Citation: Graeber 2014),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA)</t>
+    <t>(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft WDAC),(Citation: Microsoft Application Lockdown),(Citation: Windows Commands JPCERT),(Citation: Kubernetes Security Context),(Citation: Kubernetes Hardening Guide),(Citation: LKM loading kernel restrictions),(Citation: Microsoft Driver Block Rules),(Citation: SANS Application Whitelisting),(Citation: Kernel Self Protection Project),(Citation: Default VBS macros Blocking ),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Windows Defender Application Control),(Citation: Wikibooks Grsecurity),(Citation: TechNet Applocker vs SRP),(Citation: Kernel.org Restrict Kernel Module),(Citation: NSA MS AppLocker),(Citation: Microsoft Using Software Restriction ),(Citation: Beechey 2010),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: file_upload_attacks_pt2),(Citation: Corio 2008),(Citation: Microsoft PowerShell CLM),(Citation: Technospot Chrome Extensions GP)</t>
+  </si>
+  <si>
+    <t>(Citation: Beechey 2010),(Citation: TechNet Applocker vs SRP),(Citation: Corio 2008),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: NSA MS AppLocker),(Citation: Windows Commands JPCERT),(Citation: Microsoft Windows Defender Application Control)</t>
+  </si>
+  <si>
+    <t>(Citation: Secure Ideas SMB Relay),(Citation: Juniper DAI 2020),(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft Preventing SMB),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: CERT-EU DDoS March 2017),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT SMB Security),(Citation: RedLock Instance Metadata API 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Kubernetes Cloud Native Security),(Citation: TechNet RDP Gateway),(Citation: Wikipedia 802.1x)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: CISA MFA PrintNightmare),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Evilginx 2 July 2018),(Citation: Expel IO Evil in AWS),(Citation: Microsoft - Device Registration)</t>
+  </si>
+  <si>
+    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: dhcp_serv_op_events),(Citation: Cybereason Dissecting DGAs),(Citation: University of Birmingham C2)</t>
+  </si>
+  <si>
+    <t>(Citation: Harmj0y Domain Trusts),(Citation: TechNet Firewall Design),(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: HowToGeek ShowExtension),(Citation: Tilbury Windows Credentials),(Citation: TechNet Removable Media Control),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft BITS),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet RDP NLA),(Citation: reagentc_cmd),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Seqrite DoubleExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: EnableMPRNotifications),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Microsoft GPO Bluetooth FEB 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye WMI 2015),(Citation: Microsoft Replace Process Token),(Citation: AWS Setting Up Run Command),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Kubernetes Service Accounts),(Citation: TechNet Least Privilege),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Process Wide Com Keys),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: TechNet Scheduling Priority),(Citation: Microsoft COM ACL),(Citation: Tilbury Windows Credentials),(Citation: MagicWeb),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft System Wide Com Keys),(Citation: FireEye ADFS),(Citation: TechNet Credential Theft),(Citation: Microsoft Create Token),(Citation: Microsoft runas),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Securing Privileged Access),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft PS JEA),(Citation: Microsoft Remote Use of Local)</t>
+  </si>
+  <si>
+    <t>(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft Configure LSA)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: create_sym_links),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft ETW May 2018),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: win_xml_evt_log)</t>
+    <t>(Citation: create_sym_links),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: piazza launch agent mitigation),(Citation: win_xml_evt_log),(Citation: Microsoft W32Time May 2017)</t>
   </si>
   <si>
     <t>(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging)</t>
+    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: ACSC Email Spoofing),(Citation: Palo Alto Office Test Sofacy),(Citation: Microsoft Anti Spoofing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Wikipedia HPKP),(Citation: CloudSploit - Unused AWS Regions),(Citation: Cisco Securing SNMP),(Citation: Enigma Reviving DDE Jan 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Chromium HSTS)</t>
-  </si>
-  <si>
-    <t>(Citation: Github UACMe),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Home Page),(Citation: NSA Spotting),(Citation: SensePost Outlook Forms),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft ETW May 2018),(Citation: MDMProfileConfigMacOS),(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes Hardening Guide),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes RBAC),(Citation: Apple TN2459 Kernel Extensions),(Citation: Mandiant M-Trends 2020),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft WMI Filters),(Citation: Symantec BITS May 2007),(Citation: Wald0 Guide to GPOs),(Citation: Expel IO Evil in AWS),(Citation: Office 365 Partner Relationships),(Citation: Microsoft GPO Security Filtering),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft SolarWinds Customer Guidance)</t>
-  </si>
-  <si>
-    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>
+    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CloudSploit - Unused AWS Regions),(Citation: Wikipedia HPKP),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft Anti Spoofing),(Citation: Cisco Securing SNMP),(Citation: CyberArk Labs Safe Mode 2016),(Citation: ACSC Email Spoofing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Palo Alto Office Test Sofacy),(Citation: Chromium HSTS)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page)</t>
+  </si>
+  <si>
+    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes Hardening Guide),(Citation: Office 365 Partner Relationships),(Citation: Amazon S3 Security, 2019),(Citation: Apple TN2459 Kernel Extensions),(Citation: Symantec BITS May 2007),(Citation: Expel IO Evil in AWS),(Citation: Microsoft WMI Filters),(Citation: MDMProfileConfigMacOS),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft ETW May 2018),(Citation: Microsoft Azure Storage Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes RBAC),(Citation: Mandiant M-Trends 2020),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft GPO Security Filtering),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,103 +783,103 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft MS14-025),(Citation: Microsoft Replication ACL),(Citation: STIG krbtgt reset),(Citation: AdSecurity DCSync Sept 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Mimikatz DCSync),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Mandiant Defend UNC2452 White Paper)</t>
-  </si>
-  <si>
-    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015),(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple App Security Overview),(Citation: Comparitech Replay Attack),(Citation: FireEye DLL Side-Loading),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
-  </si>
-  <si>
-    <t>(Citation: Mandiant Azure AD Backdoors),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: GitHub Certify),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: SpecterOps Certified Pre Owned),(Citation: Kubernetes Hardening Guide),(Citation: Mandiant Cloudy Logs 2023),(Citation: Amazon S3 Security, 2019),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: MagicWeb),(Citation: Microsoft Get-InboxRule),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Powersploit),(Citation: FireEye ADFS),(Citation: Microsoft Sxstrace),(Citation: GitHub PSPKIAudit),(Citation: Github UACMe),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Microsoft CreateProcess),(Citation: GitHub Bloodhound),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Vulnerability and Exploit Detector)</t>
-  </si>
-  <si>
-    <t>(Citation: win10_asr),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Nov 2017),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules)</t>
-  </si>
-  <si>
-    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TechNet Secure Boot Process),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module)</t>
-  </si>
-  <si>
-    <t>(Citation: Content trust in Docker),(Citation: Content trust in Azure Container Registry),(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Credential Guard April 2017)</t>
+    <t>(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Protected Users Security Group),(Citation: AdSecurity DCSync Sept 2015),(Citation: STIG krbtgt reset),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft MS14-025),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Replication ACL),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft SID Filtering Quarantining Jan 2009)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
+  </si>
+  <si>
+    <t>(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Microsoft CreateProcess),(Citation: GitHub Certify),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Powersploit),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Mandiant Cloudy Logs 2023),(Citation: Mandiant Azure AD Backdoors),(Citation: MagicWeb),(Citation: SpecterOps Certified Pre Owned),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Vulnerability and Exploit Detector),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Microsoft Sxstrace),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Github UACMe),(Citation: GitHub PSPKIAudit),(Citation: Kubernetes Hardening Guide),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Amazon S3 Security, 2019),(Citation: GitHub Bloodhound),(Citation: FireEye ADFS),(Citation: Microsoft Get-InboxRule)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: win10_asr),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Obfuscation)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module)</t>
+  </si>
+  <si>
+    <t>(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: TechNet Credential Guard)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
   </si>
   <si>
-    <t>(Citation: TechNet Removable Media Control),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft Disable Autorun),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable Macros),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: ITSyndicate Disabling PHP functions),(Citation: GitHub MOTW),(Citation: Microsoft Disable DCOM),(Citation: Microsoft BEC Campaign),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Gmail Delegation),(Citation: Symantec SSH and ssh-agent),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: TechNet Screensaver GP),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Disable VBA Jan 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: Google Cloud Encryption Key Rotation),(Citation: Microsoft Primary Refresh Token),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Azure Storage Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Metcalf 2015)</t>
+    <t>(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Disable DCOM),(Citation: Symantec SSH and ssh-agent),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft ADV170021 Dec 2017),(Citation: TechNet Screensaver GP),(Citation: TechNet Removable Media Control),(Citation: Microsoft Network access Credential Manager),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft BEC Campaign),(Citation: ITSyndicate Disabling PHP functions),(Citation: GitHub MOTW),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable Macros),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft Disable Autorun),(Citation: Gmail Delegation),(Citation: BleepingComputer DDE Disabled in Word Dec 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Google Cloud Encryption Key Rotation),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: SpecterOps Certified Pre Owned),(Citation: Metcalf 2015)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft WDAC),(Citation: Microsoft Application Lockdown),(Citation: Windows Commands JPCERT),(Citation: Kubernetes Security Context),(Citation: Kubernetes Hardening Guide),(Citation: LKM loading kernel restrictions),(Citation: Microsoft Driver Block Rules),(Citation: SANS Application Whitelisting),(Citation: Kernel Self Protection Project),(Citation: Default VBS macros Blocking ),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Windows Defender Application Control),(Citation: Wikibooks Grsecurity),(Citation: TechNet Applocker vs SRP),(Citation: Kernel.org Restrict Kernel Module),(Citation: NSA MS AppLocker),(Citation: Microsoft Using Software Restriction ),(Citation: Beechey 2010),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: file_upload_attacks_pt2),(Citation: Corio 2008),(Citation: Microsoft PowerShell CLM),(Citation: Technospot Chrome Extensions GP)</t>
-  </si>
-  <si>
-    <t>(Citation: Beechey 2010),(Citation: TechNet Applocker vs SRP),(Citation: Corio 2008),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: NSA MS AppLocker),(Citation: Windows Commands JPCERT),(Citation: Microsoft Windows Defender Application Control)</t>
-  </si>
-  <si>
-    <t>(Citation: Secure Ideas SMB Relay),(Citation: Juniper DAI 2020),(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft Preventing SMB),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: CERT-EU DDoS March 2017),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT SMB Security),(Citation: RedLock Instance Metadata API 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Kubernetes Cloud Native Security),(Citation: TechNet RDP Gateway),(Citation: Wikipedia 802.1x)</t>
-  </si>
-  <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: CISA MFA PrintNightmare),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Evilginx 2 July 2018),(Citation: Expel IO Evil in AWS),(Citation: Microsoft - Device Registration)</t>
-  </si>
-  <si>
-    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: dhcp_serv_op_events),(Citation: Cybereason Dissecting DGAs),(Citation: University of Birmingham C2)</t>
-  </si>
-  <si>
-    <t>(Citation: Harmj0y Domain Trusts),(Citation: TechNet Firewall Design),(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: HowToGeek ShowExtension),(Citation: Tilbury Windows Credentials),(Citation: TechNet Removable Media Control),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft BITS),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Windows RDP Sessions),(Citation: Microsoft WDigest Mit),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet RDP NLA),(Citation: reagentc_cmd),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Seqrite DoubleExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: EnableMPRNotifications),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Microsoft GPO Bluetooth FEB 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye WMI 2015),(Citation: Microsoft Replace Process Token),(Citation: AWS Setting Up Run Command),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Kubernetes Service Accounts),(Citation: TechNet Least Privilege),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Process Wide Com Keys),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: TechNet Scheduling Priority),(Citation: Microsoft COM ACL),(Citation: Tilbury Windows Credentials),(Citation: MagicWeb),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft System Wide Com Keys),(Citation: FireEye ADFS),(Citation: TechNet Credential Theft),(Citation: Microsoft Create Token),(Citation: Microsoft runas),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Securing Privileged Access),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft PS JEA),(Citation: Microsoft Remote Use of Local)</t>
-  </si>
-  <si>
-    <t>(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft Configure LSA)</t>
+    <t>(Citation: Corio 2008),(Citation: Increasing Linux kernel integrity),(Citation: NSA MS AppLocker),(Citation: Microsoft Using Software Restriction ),(Citation: TechNet Applocker vs SRP),(Citation: file_upload_attacks_pt2),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Application Lockdown),(Citation: Kernel Self Protection Project),(Citation: Technospot Chrome Extensions GP),(Citation: SANS Application Whitelisting),(Citation: Beechey 2010),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Security Context),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft WDAC),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: LKM loading kernel restrictions),(Citation: Default VBS macros Blocking ),(Citation: Windows Commands JPCERT),(Citation: Kubernetes Hardening Guide),(Citation: Wikibooks Grsecurity),(Citation: Microsoft Windows Defender Application Control),(Citation: Kernel.org Restrict Kernel Module)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Commands JPCERT),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: NSA MS AppLocker),(Citation: Microsoft Windows Defender Application Control),(Citation: Secure Host Baseline EMET),(Citation: TechNet Moving Beyond EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Preventing SMB),(Citation: byt3bl33d3r NTLM Relaying),(Citation: US-CERT SMB Security),(Citation: Juniper DAI 2020),(Citation: US-CERT APT Energy Oct 2017),(Citation: Secure Ideas SMB Relay),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft SMB Packet Signing),(Citation: CERT-EU DDoS March 2017),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: RedLock Instance Metadata API 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes API Control Access),(Citation: Docker Daemon Socket Protect),(Citation: Wikipedia 802.1x),(Citation: Microsoft AKS Azure AD 2023),(Citation: TechNet RDP Gateway),(Citation: Kubernetes Cloud Native Security)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA MFA PrintNightmare),(Citation: Microsoft - Device Registration),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: AWS - IAM Console Best Practices),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Amazon S3 Security, 2019),(Citation: Evilginx 2 July 2018),(Citation: Expel IO Evil in AWS),(Citation: Berkley Secure)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Akamai DGA Mitigation),(Citation: Cybereason Dissecting DGAs),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: dhcp_serv_op_events),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Firewall Design),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet RDP NLA),(Citation: reagentc_cmd),(Citation: Windows RDP Sessions),(Citation: TechNet Removable Media Control),(Citation: UCF STIG Elevation Account Enumeration),(Citation: HowToGeek ShowExtension),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Tilbury Windows Credentials),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Apple Developer Doco Hardened Runtime),(Citation: EnableMPRNotifications),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Seqrite DoubleExtension),(Citation: Microsoft BITS),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft WDigest Mit)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc),(Citation: Microsoft Install Password Filter n.d),(Citation: NIST 800-63-3)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Replace Process Token),(Citation: TechNet Credential Theft),(Citation: TechNet Least Privilege),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: ADSecurity AD Kerberos Attacks),(Citation: TechNet Scheduling Priority),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft PS JEA),(Citation: Microsoft Create Token),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: MagicWeb),(Citation: Microsoft Securing Privileged Access),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft runas),(Citation: Microsoft COM ACL),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Process Wide Com Keys),(Citation: Kubernetes Service Accounts),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: FireEye WMI 2015),(Citation: Kubernetes Hardening Guide),(Citation: Tilbury Windows Credentials),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: FireEye ADFS)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Configure LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft LSA Protection Mar 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: create_sym_links),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: piazza launch agent mitigation),(Citation: win_xml_evt_log),(Citation: Microsoft W32Time May 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL)</t>
-  </si>
-  <si>
-    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals)</t>
+    <t>(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: create_sym_links),(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: piazza launch agent mitigation),(Citation: Microsoft W32Time May 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: CloudSploit - Unused AWS Regions),(Citation: Wikipedia HPKP),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft Anti Spoofing),(Citation: Cisco Securing SNMP),(Citation: CyberArk Labs Safe Mode 2016),(Citation: ACSC Email Spoofing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Palo Alto Office Test Sofacy),(Citation: Chromium HSTS)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: SensePost Outlook Home Page)</t>
+    <t>(Citation: Wikipedia HPKP),(Citation: CloudSploit - Unused AWS Regions),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft Anti Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Palo Alto Office Test Sofacy),(Citation: Chromium HSTS),(Citation: ACSC Email Spoofing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Cisco Securing SNMP)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: NSA Spotting),(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Forms),(Citation: SensePost Outlook Home Page),(Citation: MS14-025),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes Hardening Guide),(Citation: Office 365 Partner Relationships),(Citation: Amazon S3 Security, 2019),(Citation: Apple TN2459 Kernel Extensions),(Citation: Symantec BITS May 2007),(Citation: Expel IO Evil in AWS),(Citation: Microsoft WMI Filters),(Citation: MDMProfileConfigMacOS),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft ETW May 2018),(Citation: Microsoft Azure Storage Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes RBAC),(Citation: Mandiant M-Trends 2020),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft GPO Security Filtering),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
+    <t>(Citation: Symantec BITS May 2007),(Citation: Microsoft WMI Filters),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Azure Storage Security, 2019),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes RBAC),(Citation: Microsoft ETW May 2018),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Apple TN2459 Kernel Extensions),(Citation: MDMProfileConfigMacOS),(Citation: Expel IO Evil in AWS),(Citation: Mandiant M-Trends 2020),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Office 365 Partner Relationships),(Citation: Amazon S3 Security, 2019),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft GPO Security Filtering)</t>
   </si>
   <si>
     <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,85 +783,85 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Protected Users Security Group),(Citation: AdSecurity DCSync Sept 2015),(Citation: STIG krbtgt reset),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft MS14-025),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Replication ACL),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft SID Filtering Quarantining Jan 2009)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye DLL Side-Loading),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Apple Developer Doco Hardened Runtime)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape)</t>
-  </si>
-  <si>
-    <t>(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Microsoft CreateProcess),(Citation: GitHub Certify),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Powersploit),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Mandiant Cloudy Logs 2023),(Citation: Mandiant Azure AD Backdoors),(Citation: MagicWeb),(Citation: SpecterOps Certified Pre Owned),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Vulnerability and Exploit Detector),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Microsoft Sxstrace),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Github UACMe),(Citation: GitHub PSPKIAudit),(Citation: Kubernetes Hardening Guide),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Amazon S3 Security, 2019),(Citation: GitHub Bloodhound),(Citation: FireEye ADFS),(Citation: Microsoft Get-InboxRule)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: win10_asr),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Obfuscation)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module)</t>
-  </si>
-  <si>
-    <t>(Citation: applescript signing),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: TechNet Credential Guard)</t>
+    <t>(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft MS14-025),(Citation: AdSecurity DCSync Sept 2015),(Citation: STIG krbtgt reset),(Citation: ADSecurity Mimikatz DCSync),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Replication ACL),(Citation: Microsoft Trust Considerations Nov 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Comparitech Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View)</t>
+  </si>
+  <si>
+    <t>(Citation: Vulnerability and Exploit Detector),(Citation: Microsoft Sxstrace),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: GitHub Bloodhound),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Github UACMe),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft CreateProcess),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Powersploit),(Citation: GitHub PSPKIAudit),(Citation: SpecterOps Certified Pre Owned),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: GitHub Certify),(Citation: FireEye ADFS),(Citation: Mandiant Azure AD Backdoors),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft Get-InboxRule),(Citation: Kubernetes Hardening Guide),(Citation: Amazon S3 Security, 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018),(Citation: win10_asr),(Citation: Microsoft driver block rules),(Citation: Microsoft ASR Nov 2017),(Citation: Microsoft ASR Obfuscation),(Citation: Malicious Driver Reporting Center)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Intel Hardware-based Security Technologies),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TCG Trusted Platform Module),(Citation: ESET LoJax Sept 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Disable DCOM),(Citation: Symantec SSH and ssh-agent),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft ADV170021 Dec 2017),(Citation: TechNet Screensaver GP),(Citation: TechNet Removable Media Control),(Citation: Microsoft Network access Credential Manager),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft BEC Campaign),(Citation: ITSyndicate Disabling PHP functions),(Citation: GitHub MOTW),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft Disable Macros),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft Disable Autorun),(Citation: Gmail Delegation),(Citation: BleepingComputer DDE Disabled in Word Dec 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Google Cloud Encryption Key Rotation),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: SpecterOps Certified Pre Owned),(Citation: Metcalf 2015)</t>
+    <t>(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft BEC Campaign),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft Disable VBA Jan 2020),(Citation: ITSyndicate Disabling PHP functions),(Citation: Gmail Delegation),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: MRWLabs Office Persistence Add-ins),(Citation: TechNet Removable Media Control),(Citation: GitHub MOTW),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable DCOM),(Citation: Microsoft ADV170021 Dec 2017),(Citation: SpecterOps Certified Pre Owned),(Citation: Amazon AWS IMDS V2),(Citation: TechNet Screensaver GP),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable Macros),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Disable Autorun),(Citation: ADSecurity Windows Secure Baseline)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Metcalf 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Amazon S3 Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Corio 2008),(Citation: Increasing Linux kernel integrity),(Citation: NSA MS AppLocker),(Citation: Microsoft Using Software Restriction ),(Citation: TechNet Applocker vs SRP),(Citation: file_upload_attacks_pt2),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Dormann Dangers of VHD 2019),(Citation: Microsoft Application Lockdown),(Citation: Kernel Self Protection Project),(Citation: Technospot Chrome Extensions GP),(Citation: SANS Application Whitelisting),(Citation: Beechey 2010),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Security Context),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft WDAC),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: LKM loading kernel restrictions),(Citation: Default VBS macros Blocking ),(Citation: Windows Commands JPCERT),(Citation: Kubernetes Hardening Guide),(Citation: Wikibooks Grsecurity),(Citation: Microsoft Windows Defender Application Control),(Citation: Kernel.org Restrict Kernel Module)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Commands JPCERT),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: NSA MS AppLocker),(Citation: Microsoft Windows Defender Application Control),(Citation: Secure Host Baseline EMET),(Citation: TechNet Moving Beyond EMET),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Preventing SMB),(Citation: byt3bl33d3r NTLM Relaying),(Citation: US-CERT SMB Security),(Citation: Juniper DAI 2020),(Citation: US-CERT APT Energy Oct 2017),(Citation: Secure Ideas SMB Relay),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft SMB Packet Signing),(Citation: CERT-EU DDoS March 2017),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: RedLock Instance Metadata API 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes API Control Access),(Citation: Docker Daemon Socket Protect),(Citation: Wikipedia 802.1x),(Citation: Microsoft AKS Azure AD 2023),(Citation: TechNet RDP Gateway),(Citation: Kubernetes Cloud Native Security)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA MFA PrintNightmare),(Citation: Microsoft - Device Registration),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: AWS - IAM Console Best Practices),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Amazon S3 Security, 2019),(Citation: Evilginx 2 July 2018),(Citation: Expel IO Evil in AWS),(Citation: Berkley Secure)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Akamai DGA Mitigation),(Citation: Cybereason Dissecting DGAs),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: dhcp_serv_op_events),(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Firewall Design),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet RDP NLA),(Citation: reagentc_cmd),(Citation: Windows RDP Sessions),(Citation: TechNet Removable Media Control),(Citation: UCF STIG Elevation Account Enumeration),(Citation: HowToGeek ShowExtension),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Tilbury Windows Credentials),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Apple Developer Doco Hardened Runtime),(Citation: EnableMPRNotifications),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Seqrite DoubleExtension),(Citation: Microsoft BITS),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft WDigest Mit)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices),(Citation: store_pwd_rev_enc),(Citation: Microsoft Install Password Filter n.d),(Citation: NIST 800-63-3)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Replace Process Token),(Citation: TechNet Credential Theft),(Citation: TechNet Least Privilege),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: ADSecurity AD Kerberos Attacks),(Citation: TechNet Scheduling Priority),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Remote Use of Local),(Citation: Microsoft PS JEA),(Citation: Microsoft Create Token),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: MagicWeb),(Citation: Microsoft Securing Privileged Access),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft runas),(Citation: Microsoft COM ACL),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Process Wide Com Keys),(Citation: Kubernetes Service Accounts),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: FireEye WMI 2015),(Citation: Kubernetes Hardening Guide),(Citation: Tilbury Windows Credentials),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: FireEye ADFS)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Configure LSA),(Citation: Graeber 2014),(Citation: Microsoft LSA),(Citation: Microsoft LSA Protection Mar 2014)</t>
+    <t>(Citation: Wikibooks Grsecurity),(Citation: Microsoft Windows Defender Application Control),(Citation: file_upload_attacks_pt2),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Dormann Dangers of VHD 2019),(Citation: LKM loading kernel restrictions),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Corio 2008),(Citation: Kubernetes Security Context),(Citation: Kernel.org Restrict Kernel Module),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft Using Software Restriction ),(Citation: NSA MS AppLocker),(Citation: Microsoft PowerShell CLM),(Citation: SANS Application Whitelisting),(Citation: Microsoft Application Lockdown),(Citation: Kernel Self Protection Project),(Citation: Windows Commands JPCERT),(Citation: Beechey 2010),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft WDAC),(Citation: Increasing Linux kernel integrity),(Citation: Default VBS macros Blocking )</t>
+  </si>
+  <si>
+    <t>(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: Corio 2008),(Citation: TechNet Moving Beyond EMET),(Citation: Windows Commands JPCERT),(Citation: Beechey 2010),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP)</t>
+  </si>
+  <si>
+    <t>(Citation: RedLock Instance Metadata API 2018),(Citation: Microsoft Preventing SMB),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: US-CERT APT Energy Oct 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT SMB Security),(Citation: CERT-EU DDoS March 2017),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft SMB Packet Signing),(Citation: Juniper DAI 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet RDP Gateway),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Kubernetes Cloud Native Security),(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access)</t>
+  </si>
+  <si>
+    <t>(Citation: Expel IO Evil in AWS),(Citation: Evilginx 2 July 2018),(Citation: CISA MFA PrintNightmare),(Citation: Microsoft - Device Registration),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: AWS - IAM Console Best Practices),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Amazon S3 Security, 2019),(Citation: Berkley Secure)</t>
+  </si>
+  <si>
+    <t>(Citation: dhcp_serv_op_events),(Citation: University of Birmingham C2),(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechNet Removable Media Control),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: reagentc_cmd),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet RDP NLA),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft WDigest Mit),(Citation: Tilbury Windows Credentials),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: EnableMPRNotifications),(Citation: TechNet Server Operator Scheduled Task),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: HowToGeek ShowExtension),(Citation: Microsoft BITS),(Citation: Windows RDP Sessions),(Citation: Seqrite DoubleExtension)</t>
+  </si>
+  <si>
+    <t>(Citation: store_pwd_rev_enc),(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft PS JEA),(Citation: Microsoft Remote Use of Local),(Citation: TechNet Least Privilege),(Citation: Microsoft Securing Privileged Access),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: MagicWeb),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Mandiant Azure Run Command 2021),(Citation: TechNet Scheduling Priority),(Citation: TechNet Credential Theft),(Citation: Microsoft System Wide Com Keys),(Citation: Kubernetes Service Accounts),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft COM ACL),(Citation: AWS Setting Up Run Command),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Replace Process Token),(Citation: Microsoft runas),(Citation: Kubernetes Admission Controllers),(Citation: FireEye ADFS),(Citation: FireEye WMI 2015),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Tilbury Windows Credentials),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Process Wide Com Keys),(Citation: ADSecurity AD Kerberos Attacks),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014),(Citation: Microsoft Configure LSA)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: create_sym_links),(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: piazza launch agent mitigation),(Citation: Microsoft W32Time May 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL)</t>
+    <t>(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: create_sym_links),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order)</t>
   </si>
   <si>
     <t>(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging)</t>
@@ -870,19 +870,19 @@
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: Wikipedia HPKP),(Citation: CloudSploit - Unused AWS Regions),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft Anti Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Palo Alto Office Test Sofacy),(Citation: Chromium HSTS),(Citation: ACSC Email Spoofing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Cisco Securing SNMP)</t>
-  </si>
-  <si>
-    <t>(Citation: Github UACMe),(Citation: NSA Spotting),(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Forms),(Citation: SensePost Outlook Home Page),(Citation: MS14-025),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
+    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft Anti Spoofing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: ACSC Email Spoofing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Palo Alto Office Test Sofacy),(Citation: Cisco Securing SNMP),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Wikipedia HPKP),(Citation: Chromium HSTS),(Citation: CloudSploit - Unused AWS Regions)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: SensePost Outlook Home Page),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: NSA Spotting),(Citation: Cisco Blog Legacy Device Attacks)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: Symantec BITS May 2007),(Citation: Microsoft WMI Filters),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Azure Storage Security, 2019),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes RBAC),(Citation: Microsoft ETW May 2018),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Apple TN2459 Kernel Extensions),(Citation: MDMProfileConfigMacOS),(Citation: Expel IO Evil in AWS),(Citation: Mandiant M-Trends 2020),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Kubernetes Hardening Guide),(Citation: Office 365 Partner Relationships),(Citation: Amazon S3 Security, 2019),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft GPO Security Filtering)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>
+    <t>(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Kubernetes RBAC),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft GPO Security Filtering),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft ETW May 2018),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft WMI Filters),(Citation: Wald0 Guide to GPOs),(Citation: MDMProfileConfigMacOS),(Citation: UCF STIG Symbolic Links),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Expel IO Evil in AWS),(Citation: Symantec BITS May 2007),(Citation: Apple TN2459 Kernel Extensions),(Citation: Office 365 Partner Relationships),(Citation: Kubernetes Hardening Guide),(Citation: Amazon S3 Security, 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,106 +783,106 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft MS14-025),(Citation: AdSecurity DCSync Sept 2015),(Citation: STIG krbtgt reset),(Citation: ADSecurity Mimikatz DCSync),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Replication ACL),(Citation: Microsoft Trust Considerations Nov 2014)</t>
-  </si>
-  <si>
-    <t>(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye DLL Side-Loading),(Citation: Comparitech Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View)</t>
-  </si>
-  <si>
-    <t>(Citation: Vulnerability and Exploit Detector),(Citation: Microsoft Sxstrace),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: GitHub Bloodhound),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Github UACMe),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft CreateProcess),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Powersploit),(Citation: GitHub PSPKIAudit),(Citation: SpecterOps Certified Pre Owned),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: GitHub Certify),(Citation: FireEye ADFS),(Citation: Mandiant Azure AD Backdoors),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft Get-InboxRule),(Citation: Kubernetes Hardening Guide),(Citation: Amazon S3 Security, 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018),(Citation: win10_asr),(Citation: Microsoft driver block rules),(Citation: Microsoft ASR Nov 2017),(Citation: Microsoft ASR Obfuscation),(Citation: Malicious Driver Reporting Center)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Intel Hardware-based Security Technologies),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TCG Trusted Platform Module),(Citation: ESET LoJax Sept 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Microsoft Credential Guard April 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2)</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft BEC Campaign),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft Disable VBA Jan 2020),(Citation: ITSyndicate Disabling PHP functions),(Citation: Gmail Delegation),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: MRWLabs Office Persistence Add-ins),(Citation: TechNet Removable Media Control),(Citation: GitHub MOTW),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable DCOM),(Citation: Microsoft ADV170021 Dec 2017),(Citation: SpecterOps Certified Pre Owned),(Citation: Amazon AWS IMDS V2),(Citation: TechNet Screensaver GP),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable Macros),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Disable Autorun),(Citation: ADSecurity Windows Secure Baseline)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Metcalf 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: Amazon S3 Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
+    <t>(Citation: Microsoft Netdom Trust Sept 2012),(Citation: ADSecurity Mimikatz DCSync),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft MS14-025),(Citation: STIG krbtgt reset),(Citation: Microsoft Replication ACL),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: AdSecurity DCSync Sept 2015),(Citation: SpecterOps Certified Pre Owned)</t>
+  </si>
+  <si>
+    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main)</t>
+  </si>
+  <si>
+    <t>(Citation: Apple App Security Overview),(Citation: Comparitech Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: FireEye DLL Side-Loading),(Citation: Bugcrowd Replay Attack)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Preauthentication Jul 2012),(Citation: GitHub PSPKIAudit),(Citation: GitHub Bloodhound),(Citation: Microsoft CreateProcess),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: MagicWeb),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Amazon S3 Security, 2019),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Vulnerability and Exploit Detector),(Citation: Powersploit),(Citation: Mandiant Cloudy Logs 2023),(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Azure AD Backdoors),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Github UACMe),(Citation: Microsoft Sxstrace),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: GitHub Certify),(Citation: Microsoft Get-InboxRule),(Citation: FireEye ADFS)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules),(Citation: win10_asr)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot)</t>
+  </si>
+  <si>
+    <t>(Citation: Content trust in Docker),(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
+  </si>
+  <si>
+    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Screensaver GP),(Citation: ADSecurity Windows Secure Baseline),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft Disable DCOM),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: TechNet Removable Media Control),(Citation: Microsoft BEC Campaign),(Citation: Gmail Delegation),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft Disable Autorun),(Citation: GitHub MOTW),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable Macros),(Citation: ITSyndicate Disabling PHP functions),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Network access Credential Manager),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft ADV170021 Dec 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Azure Storage Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Wikibooks Grsecurity),(Citation: Microsoft Windows Defender Application Control),(Citation: file_upload_attacks_pt2),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Dormann Dangers of VHD 2019),(Citation: LKM loading kernel restrictions),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Corio 2008),(Citation: Kubernetes Security Context),(Citation: Kernel.org Restrict Kernel Module),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft Using Software Restriction ),(Citation: NSA MS AppLocker),(Citation: Microsoft PowerShell CLM),(Citation: SANS Application Whitelisting),(Citation: Microsoft Application Lockdown),(Citation: Kernel Self Protection Project),(Citation: Windows Commands JPCERT),(Citation: Beechey 2010),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft WDAC),(Citation: Increasing Linux kernel integrity),(Citation: Default VBS macros Blocking )</t>
-  </si>
-  <si>
-    <t>(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: Corio 2008),(Citation: TechNet Moving Beyond EMET),(Citation: Windows Commands JPCERT),(Citation: Beechey 2010),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP)</t>
-  </si>
-  <si>
-    <t>(Citation: RedLock Instance Metadata API 2018),(Citation: Microsoft Preventing SMB),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: US-CERT APT Energy Oct 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT SMB Security),(Citation: CERT-EU DDoS March 2017),(Citation: ntlm_relaying_kerberos_del),(Citation: Microsoft SMB Packet Signing),(Citation: Juniper DAI 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet RDP Gateway),(Citation: Microsoft AKS Azure AD 2023),(Citation: Wikipedia 802.1x),(Citation: Kubernetes Cloud Native Security),(Citation: Docker Daemon Socket Protect),(Citation: Kubernetes API Control Access)</t>
-  </si>
-  <si>
-    <t>(Citation: Expel IO Evil in AWS),(Citation: Evilginx 2 July 2018),(Citation: CISA MFA PrintNightmare),(Citation: Microsoft - Device Registration),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: AWS - IAM Console Best Practices),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Amazon S3 Security, 2019),(Citation: Berkley Secure)</t>
-  </si>
-  <si>
-    <t>(Citation: dhcp_serv_op_events),(Citation: University of Birmingham C2),(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechNet Removable Media Control),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: reagentc_cmd),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet RDP NLA),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft WDigest Mit),(Citation: Tilbury Windows Credentials),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: EnableMPRNotifications),(Citation: TechNet Server Operator Scheduled Task),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: HowToGeek ShowExtension),(Citation: Microsoft BITS),(Citation: Windows RDP Sessions),(Citation: Seqrite DoubleExtension)</t>
-  </si>
-  <si>
-    <t>(Citation: store_pwd_rev_enc),(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft PS JEA),(Citation: Microsoft Remote Use of Local),(Citation: TechNet Least Privilege),(Citation: Microsoft Securing Privileged Access),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: MagicWeb),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Mandiant Azure Run Command 2021),(Citation: TechNet Scheduling Priority),(Citation: TechNet Credential Theft),(Citation: Microsoft System Wide Com Keys),(Citation: Kubernetes Service Accounts),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft COM ACL),(Citation: AWS Setting Up Run Command),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Replace Process Token),(Citation: Microsoft runas),(Citation: Kubernetes Admission Controllers),(Citation: FireEye ADFS),(Citation: FireEye WMI 2015),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Tilbury Windows Credentials),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Process Wide Com Keys),(Citation: ADSecurity AD Kerberos Attacks),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014),(Citation: Microsoft Configure LSA)</t>
+    <t>(Citation: Beechey 2010),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft PowerShell CLM),(Citation: LKM loading kernel restrictions),(Citation: Windows Commands JPCERT),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft WDAC),(Citation: NSA MS AppLocker),(Citation: Microsoft Driver Block Rules),(Citation: SANS Application Whitelisting),(Citation: Microsoft Using Software Restriction ),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Increasing Linux kernel integrity),(Citation: Kernel Self Protection Project),(Citation: Kernel.org Restrict Kernel Module),(Citation: Kubernetes Security Context),(Citation: Microsoft Application Lockdown),(Citation: file_upload_attacks_pt2),(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: Default VBS macros Blocking ),(Citation: Wikibooks Grsecurity),(Citation: Technospot Chrome Extensions GP),(Citation: Dormann Dangers of VHD 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Beechey 2010),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: TechNet Applocker vs SRP),(Citation: Wikipedia Control Flow Integrity),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT SMB Security),(Citation: ntlm_relaying_kerberos_del),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: RedLock Instance Metadata API 2018),(Citation: Microsoft Preventing SMB),(Citation: US-CERT APT Energy Oct 2017),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft SMB Packet Signing),(Citation: byt3bl33d3r NTLM Relaying),(Citation: CERT-EU DDoS March 2017),(Citation: Juniper DAI 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway),(Citation: Docker Daemon Socket Protect),(Citation: Microsoft AKS Azure AD 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA MFA PrintNightmare),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Evilginx 2 July 2018),(Citation: Amazon S3 Security, 2019),(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Microsoft - Device Registration),(Citation: AWS - IAM Console Best Practices),(Citation: Berkley Secure),(Citation: Microsoft Nobelium Admin Privileges)</t>
+  </si>
+  <si>
+    <t>(Citation: University of Birmingham C2),(Citation: Akamai DGA Mitigation),(Citation: dhcp_serv_op_events),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cybereason Dissecting DGAs)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet RDP NLA),(Citation: reagentc_cmd),(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechNet Removable Media Control),(Citation: Seqrite DoubleExtension),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: HowToGeek ShowExtension),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Microsoft WDigest Mit),(Citation: Microsoft BITS),(Citation: SpectorOps Code Signing Dec 2017),(Citation: EnableMPRNotifications),(Citation: Windows RDP Sessions),(Citation: Tilbury Windows Credentials),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet Server Operator Scheduled Task)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Credential Theft),(Citation: Kubernetes Service Accounts),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Mandiant Azure Run Command 2021),(Citation: MagicWeb),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Remote Use of Local),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft runas),(Citation: Tilbury Windows Credentials),(Citation: TechNet Least Privilege),(Citation: TechNet Scheduling Priority),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Kubernetes Admission Controllers),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Replace Process Token),(Citation: FireEye ADFS),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Securing Privileged Access),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: FireEye WMI 2015),(Citation: Microsoft PS JEA),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft COM ACL),(Citation: Netspi PowerShell Execution Policy Bypass)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Graeber 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: create_sym_links),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL),(Citation: Microsoft Dynamic Link Library Search Order)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging)</t>
+    <t>(Citation: create_sym_links),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: piazza launch agent mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft Anti Spoofing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: ACSC Email Spoofing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Palo Alto Office Test Sofacy),(Citation: Cisco Securing SNMP),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Wikipedia HPKP),(Citation: Chromium HSTS),(Citation: CloudSploit - Unused AWS Regions)</t>
-  </si>
-  <si>
-    <t>(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: SensePost Outlook Home Page),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: NSA Spotting),(Citation: Cisco Blog Legacy Device Attacks)</t>
+    <t>(Citation: Microsoft Anti Spoofing),(Citation: Cisco Securing SNMP),(Citation: Wikipedia HPKP),(Citation: Palo Alto Office Test Sofacy),(Citation: ACSC Email Spoofing),(Citation: CloudSploit - Unused AWS Regions),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: CyberArk Labs Safe Mode 2016),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Chromium HSTS)</t>
+  </si>
+  <si>
+    <t>(Citation: SensePost Outlook Home Page),(Citation: Github UACMe),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: NSA Spotting),(Citation: SensePost Outlook Forms),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Kubernetes RBAC),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft GPO Security Filtering),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft ETW May 2018),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft WMI Filters),(Citation: Wald0 Guide to GPOs),(Citation: MDMProfileConfigMacOS),(Citation: UCF STIG Symbolic Links),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Expel IO Evil in AWS),(Citation: Symantec BITS May 2007),(Citation: Apple TN2459 Kernel Extensions),(Citation: Office 365 Partner Relationships),(Citation: Kubernetes Hardening Guide),(Citation: Amazon S3 Security, 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>
+    <t>(Citation: Apple TN2459 Kernel Extensions),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft WMI Filters),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Symantec BITS May 2007),(Citation: Microsoft GPO Security Filtering),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Amazon S3 Security, 2019),(Citation: Expel IO Evil in AWS),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Office 365 Partner Relationships),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft ETW May 2018),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Kubernetes RBAC),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Wald0 Guide to GPOs),(Citation: MDMProfileConfigMacOS)</t>
+  </si>
+  <si>
+    <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,103 +783,103 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Netdom Trust Sept 2012),(Citation: ADSecurity Mimikatz DCSync),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft MS14-025),(Citation: STIG krbtgt reset),(Citation: Microsoft Replication ACL),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: AdSecurity DCSync Sept 2015),(Citation: SpecterOps Certified Pre Owned)</t>
-  </si>
-  <si>
-    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple App Security Overview),(Citation: Comparitech Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: FireEye DLL Side-Loading),(Citation: Bugcrowd Replay Attack)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Kubernetes Hardening Guide)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Preauthentication Jul 2012),(Citation: GitHub PSPKIAudit),(Citation: GitHub Bloodhound),(Citation: Microsoft CreateProcess),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: MagicWeb),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Amazon S3 Security, 2019),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Vulnerability and Exploit Detector),(Citation: Powersploit),(Citation: Mandiant Cloudy Logs 2023),(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Azure AD Backdoors),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Github UACMe),(Citation: Microsoft Sxstrace),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: GitHub Certify),(Citation: Microsoft Get-InboxRule),(Citation: FireEye ADFS)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Nov 2017),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules),(Citation: win10_asr)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TCG Trusted Platform Module),(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot)</t>
-  </si>
-  <si>
-    <t>(Citation: Content trust in Docker),(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Credential Guard),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
-  </si>
-  <si>
-    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Screensaver GP),(Citation: ADSecurity Windows Secure Baseline),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft Disable DCOM),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: TechNet Removable Media Control),(Citation: Microsoft BEC Campaign),(Citation: Gmail Delegation),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft Disable Autorun),(Citation: GitHub MOTW),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable Macros),(Citation: ITSyndicate Disabling PHP functions),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Network access Credential Manager),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft ADV170021 Dec 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Primary Refresh Token),(Citation: Google Cloud Encryption Key Rotation),(Citation: Amazon S3 Security, 2019),(Citation: Metcalf 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft Azure Storage Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
+    <t>(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Replication ACL),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Protected Users Security Group),(Citation: STIG krbtgt reset),(Citation: ADSecurity Mimikatz DCSync),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft MS14-025),(Citation: ADSecurity Kerberos and KRBTGT)</t>
+  </si>
+  <si>
+    <t>(Citation: SourceForge rkhunter),(Citation: Microsoft AMSI June 2015),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Apple App Security Overview),(Citation: FireEye DLL Side-Loading),(Citation: Bugcrowd Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack)</t>
+  </si>
+  <si>
+    <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Sxstrace),(Citation: Kubernetes Hardening Guide),(Citation: Github UACMe),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: FireEye ADFS),(Citation: Mandiant Azure AD Backdoors),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Powersploit),(Citation: Vulnerability and Exploit Detector),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Get-InboxRule),(Citation: GitHub Bloodhound),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: GitHub Certify),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Microsoft Dynamic-Link Library Security),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Microsoft CreateProcess),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: GitHub PSPKIAudit),(Citation: Mandiant Cloudy Logs 2023),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft Preauthentication Jul 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Obfuscation)</t>
+  </si>
+  <si>
+    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: ESET LoJax Sept 2018),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TCG Trusted Platform Module),(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021)</t>
+  </si>
+  <si>
+    <t>(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Credential Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
+  </si>
+  <si>
+    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP)</t>
+  </si>
+  <si>
+    <t>(Citation: Gmail Delegation),(Citation: ADSecurity Windows Secure Baseline),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: MRWLabs Office Persistence Add-ins),(Citation: GitHub MOTW),(Citation: Microsoft Disable DCOM),(Citation: TechNet Screensaver GP),(Citation: TechNet Removable Media Control),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Disable Macros),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Disable Autorun),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft BEC Campaign),(Citation: SpecterOps Certified Pre Owned),(Citation: ITSyndicate Disabling PHP functions)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Metcalf 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Google Cloud Encryption Key Rotation)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Beechey 2010),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft PowerShell CLM),(Citation: LKM loading kernel restrictions),(Citation: Windows Commands JPCERT),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft WDAC),(Citation: NSA MS AppLocker),(Citation: Microsoft Driver Block Rules),(Citation: SANS Application Whitelisting),(Citation: Microsoft Using Software Restriction ),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Increasing Linux kernel integrity),(Citation: Kernel Self Protection Project),(Citation: Kernel.org Restrict Kernel Module),(Citation: Kubernetes Security Context),(Citation: Microsoft Application Lockdown),(Citation: file_upload_attacks_pt2),(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: Default VBS macros Blocking ),(Citation: Wikibooks Grsecurity),(Citation: Technospot Chrome Extensions GP),(Citation: Dormann Dangers of VHD 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Beechey 2010),(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: TechNet Applocker vs SRP),(Citation: Wikipedia Control Flow Integrity),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: TechNet Moving Beyond EMET),(Citation: Secure Host Baseline EMET)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT SMB Security),(Citation: ntlm_relaying_kerberos_del),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: RedLock Instance Metadata API 2018),(Citation: Microsoft Preventing SMB),(Citation: US-CERT APT Energy Oct 2017),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Microsoft SMB Packet Signing),(Citation: byt3bl33d3r NTLM Relaying),(Citation: CERT-EU DDoS March 2017),(Citation: Juniper DAI 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway),(Citation: Docker Daemon Socket Protect),(Citation: Microsoft AKS Azure AD 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA MFA PrintNightmare),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Evilginx 2 July 2018),(Citation: Amazon S3 Security, 2019),(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Microsoft - Device Registration),(Citation: AWS - IAM Console Best Practices),(Citation: Berkley Secure),(Citation: Microsoft Nobelium Admin Privileges)</t>
-  </si>
-  <si>
-    <t>(Citation: University of Birmingham C2),(Citation: Akamai DGA Mitigation),(Citation: dhcp_serv_op_events),(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cybereason Dissecting DGAs)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet RDP NLA),(Citation: reagentc_cmd),(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechNet Removable Media Control),(Citation: Seqrite DoubleExtension),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: HowToGeek ShowExtension),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Microsoft WDigest Mit),(Citation: Microsoft BITS),(Citation: SpectorOps Code Signing Dec 2017),(Citation: EnableMPRNotifications),(Citation: Windows RDP Sessions),(Citation: Tilbury Windows Credentials),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet Server Operator Scheduled Task)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Credential Theft),(Citation: Kubernetes Service Accounts),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Create Token),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Mandiant Azure Run Command 2021),(Citation: MagicWeb),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Remote Use of Local),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft runas),(Citation: Tilbury Windows Credentials),(Citation: TechNet Least Privilege),(Citation: TechNet Scheduling Priority),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Kubernetes Admission Controllers),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Replace Process Token),(Citation: FireEye ADFS),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Securing Privileged Access),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: FireEye WMI 2015),(Citation: Microsoft PS JEA),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft COM ACL),(Citation: Netspi PowerShell Execution Policy Bypass)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Graeber 2014)</t>
+    <t>(Citation: Windows Commands JPCERT),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Hardening Guide),(Citation: Kernel.org Restrict Kernel Module),(Citation: SANS Application Whitelisting),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Using Software Restriction ),(Citation: Kubernetes Security Context),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Beechey 2010),(Citation: TechNet Applocker vs SRP),(Citation: Wikibooks Grsecurity),(Citation: Microsoft Application Lockdown),(Citation: Corio 2008),(Citation: Microsoft WDAC),(Citation: LKM loading kernel restrictions),(Citation: Default VBS macros Blocking ),(Citation: NSA MS AppLocker),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft PowerShell CLM),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft Driver Block Rules),(Citation: Kernel Self Protection Project),(Citation: Technospot Chrome Extensions GP),(Citation: Dormann Dangers of VHD 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: Beechey 2010),(Citation: TechNet Applocker vs SRP),(Citation: NSA MS AppLocker),(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: TechNet Moving Beyond EMET),(Citation: Wikipedia Control Flow Integrity)</t>
+  </si>
+  <si>
+    <t>(Citation: Secure Ideas SMB Relay),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Microsoft Preventing SMB),(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft SMB Packet Signing),(Citation: CERT-EU DDoS March 2017),(Citation: RedLock Instance Metadata API 2018),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Juniper DAI 2020),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT SMB Security)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: TechNet RDP Gateway),(Citation: Docker Daemon Socket Protect)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: CISA MFA PrintNightmare),(Citation: Amazon S3 Security, 2019),(Citation: Expel IO Evil in AWS),(Citation: Microsoft - Device Registration),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Evilginx 2 July 2018),(Citation: Microsoft Nobelium Admin Privileges),(Citation: AWS - IAM Console Best Practices)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT-TA18-106A),(Citation: dhcp_serv_op_events),(Citation: Anomali Template Injection MAR 2018),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation),(Citation: University of Birmingham C2)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Removable Media Control),(Citation: Tilbury Windows Credentials),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Microsoft BITS),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Seqrite DoubleExtension),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: HowToGeek ShowExtension),(Citation: Windows RDP Sessions),(Citation: TechNet RDP NLA),(Citation: UCF STIG Elevation Account Enumeration),(Citation: EnableMPRNotifications),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Microsoft WDigest Mit),(Citation: Apple Developer Doco Hardened Runtime),(Citation: reagentc_cmd),(Citation: TechNet Server Operator Scheduled Task)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Remote Use of Local),(Citation: Microsoft COM ACL),(Citation: Microsoft System Wide Com Keys),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Admission Controllers),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Hardening Guide),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: FireEye ADFS),(Citation: TechNet Least Privilege),(Citation: Microsoft runas),(Citation: Microsoft PS JEA),(Citation: TechNet Credential Theft),(Citation: AWS Setting Up Run Command),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Securing Privileged Access),(Citation: Mandiant Azure Run Command 2021),(Citation: MagicWeb),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Kubernetes Service Accounts),(Citation: Tilbury Windows Credentials),(Citation: Microsoft Replace Process Token),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Process Wide Com Keys),(Citation: TechNet Scheduling Priority),(Citation: FireEye WMI 2015),(Citation: Microsoft Create Token)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: create_sym_links),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: piazza launch agent mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging),(Citation: Microsoft W32Time May 2017)</t>
+    <t>(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: create_sym_links),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging),(Citation: Microsoft System Services Fundamentals)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Anti Spoofing),(Citation: Cisco Securing SNMP),(Citation: Wikipedia HPKP),(Citation: Palo Alto Office Test Sofacy),(Citation: ACSC Email Spoofing),(Citation: CloudSploit - Unused AWS Regions),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: CyberArk Labs Safe Mode 2016),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Chromium HSTS)</t>
-  </si>
-  <si>
-    <t>(Citation: SensePost Outlook Home Page),(Citation: Github UACMe),(Citation: MS14-025),(Citation: Cisco Blog Legacy Device Attacks),(Citation: NSA Spotting),(Citation: SensePost Outlook Forms),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
-  </si>
-  <si>
-    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple TN2459 Kernel Extensions),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft WMI Filters),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Symantec BITS May 2007),(Citation: Microsoft GPO Security Filtering),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Amazon S3 Security, 2019),(Citation: Expel IO Evil in AWS),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Office 365 Partner Relationships),(Citation: UCF STIG Symbolic Links),(Citation: Microsoft ETW May 2018),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Kubernetes RBAC),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Wald0 Guide to GPOs),(Citation: MDMProfileConfigMacOS)</t>
+    <t>(Citation: CyberArk Labs Safe Mode 2016),(Citation: Chromium HSTS),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Wikipedia HPKP),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Cisco Securing SNMP),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: ACSC Email Spoofing),(Citation: CloudSploit - Unused AWS Regions),(Citation: Microsoft Anti Spoofing)</t>
+  </si>
+  <si>
+    <t>(Citation: SensePost Outlook Home Page),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: NSA Spotting),(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: Cisco Blog Legacy Device Attacks)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Kubernetes RBAC),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Mandiant M-Trends 2020),(Citation: Wald0 Guide to GPOs),(Citation: MDMProfileConfigMacOS),(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Microsoft WMI Filters),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Symantec BITS May 2007),(Citation: Microsoft ETW May 2018),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Amazon S3 Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Office 365 Partner Relationships),(Citation: Microsoft GPO Security Filtering),(Citation: Apple TN2459 Kernel Extensions)</t>
   </si>
   <si>
     <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,103 +783,103 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Replication ACL),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Protected Users Security Group),(Citation: STIG krbtgt reset),(Citation: ADSecurity Mimikatz DCSync),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft MS14-025),(Citation: ADSecurity Kerberos and KRBTGT)</t>
-  </si>
-  <si>
-    <t>(Citation: SourceForge rkhunter),(Citation: Microsoft AMSI June 2015),(Citation: Mandiant Cloudy Logs 2023),(Citation: Chkrootkit Main),(Citation: Anomali Template Injection MAR 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple App Security Overview),(Citation: FireEye DLL Side-Loading),(Citation: Bugcrowd Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Comparitech Replay Attack)</t>
-  </si>
-  <si>
-    <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Kubernetes Hardening Guide),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Sxstrace),(Citation: Kubernetes Hardening Guide),(Citation: Github UACMe),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: FireEye ADFS),(Citation: Mandiant Azure AD Backdoors),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Powersploit),(Citation: Vulnerability and Exploit Detector),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Get-InboxRule),(Citation: GitHub Bloodhound),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: GitHub Certify),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Microsoft Dynamic-Link Library Security),(Citation: MagicWeb),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Microsoft CreateProcess),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: GitHub PSPKIAudit),(Citation: Mandiant Cloudy Logs 2023),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft Preauthentication Jul 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft ASR Obfuscation)</t>
-  </si>
-  <si>
-    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: ESET LoJax Sept 2018),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TCG Trusted Platform Module),(Citation: TechNet Secure Boot Process),(Citation: Microsoft TESTSIGNING Feb 2021)</t>
-  </si>
-  <si>
-    <t>(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Credential Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
-  </si>
-  <si>
-    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP)</t>
-  </si>
-  <si>
-    <t>(Citation: Gmail Delegation),(Citation: ADSecurity Windows Secure Baseline),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: MRWLabs Office Persistence Add-ins),(Citation: GitHub MOTW),(Citation: Microsoft Disable DCOM),(Citation: TechNet Screensaver GP),(Citation: TechNet Removable Media Control),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Symantec SSH and ssh-agent),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Disable Macros),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft ADV170021 Dec 2017),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Disable Autorun),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft BEC Campaign),(Citation: SpecterOps Certified Pre Owned),(Citation: ITSyndicate Disabling PHP functions)</t>
-  </si>
-  <si>
-    <t>(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Metcalf 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Google Cloud Encryption Key Rotation)</t>
+    <t>(Citation: Microsoft MS14-025),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft Replication ACL),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Protected Users Security Group),(Citation: STIG krbtgt reset),(Citation: AdSecurity DCSync Sept 2015),(Citation: ADSecurity Mimikatz DCSync),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: ADSecurity Kerberos and KRBTGT)</t>
+  </si>
+  <si>
+    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: SourceForge rkhunter),(Citation: Microsoft AMSI June 2015),(Citation: Chkrootkit Main),(Citation: Mandiant Cloudy Logs 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Comparitech Replay Attack)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View)</t>
+  </si>
+  <si>
+    <t>(Citation: Powersploit),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: SpecterOps Certified Pre Owned),(Citation: GitHub PSPKIAudit),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft Preauthentication Jul 2012),(Citation: MagicWeb),(Citation: Github UACMe),(Citation: Microsoft Sxstrace),(Citation: GitHub Certify),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft Get-InboxRule),(Citation: Mandiant Azure AD Backdoors),(Citation: GitHub Bloodhound),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Kubernetes Hardening Guide),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Vulnerability and Exploit Detector),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft CreateProcess)</t>
+  </si>
+  <si>
+    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft driver block rules)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process),(Citation: TCG Trusted Platform Module)</t>
+  </si>
+  <si>
+    <t>(Citation: applescript signing),(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub SHB Credential Guard),(Citation: TechNet Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
+  </si>
+  <si>
+    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Removable Media Control),(Citation: SpecterOps Certified Pre Owned),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft ADV170021 Dec 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Amazon AWS IMDS V2),(Citation: GitHub MOTW),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable Macros),(Citation: Microsoft Disable Autorun),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft BEC Campaign),(Citation: ADSecurity Windows Secure Baseline),(Citation: TechNet Screensaver GP),(Citation: Microsoft Disable DCOM),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Network access Credential Manager),(Citation: Gmail Delegation),(Citation: MRWLabs Office Persistence Add-ins)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Google Cloud Encryption Key Rotation),(Citation: Metcalf 2015),(Citation: Microsoft Primary Refresh Token)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Windows Commands JPCERT),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Hardening Guide),(Citation: Kernel.org Restrict Kernel Module),(Citation: SANS Application Whitelisting),(Citation: file_upload_attacks_pt2),(Citation: Microsoft Using Software Restriction ),(Citation: Kubernetes Security Context),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Beechey 2010),(Citation: TechNet Applocker vs SRP),(Citation: Wikibooks Grsecurity),(Citation: Microsoft Application Lockdown),(Citation: Corio 2008),(Citation: Microsoft WDAC),(Citation: LKM loading kernel restrictions),(Citation: Default VBS macros Blocking ),(Citation: NSA MS AppLocker),(Citation: Microsoft Windows Defender Application Control),(Citation: Microsoft PowerShell CLM),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft Driver Block Rules),(Citation: Kernel Self Protection Project),(Citation: Technospot Chrome Extensions GP),(Citation: Dormann Dangers of VHD 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Windows Commands JPCERT),(Citation: Corio 2008),(Citation: Beechey 2010),(Citation: TechNet Applocker vs SRP),(Citation: NSA MS AppLocker),(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: TechNet Moving Beyond EMET),(Citation: Wikipedia Control Flow Integrity)</t>
-  </si>
-  <si>
-    <t>(Citation: Secure Ideas SMB Relay),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Microsoft Preventing SMB),(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft SMB Packet Signing),(Citation: CERT-EU DDoS March 2017),(Citation: RedLock Instance Metadata API 2018),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Juniper DAI 2020),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT SMB Security)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: TechNet RDP Gateway),(Citation: Docker Daemon Socket Protect)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: CISA MFA PrintNightmare),(Citation: Amazon S3 Security, 2019),(Citation: Expel IO Evil in AWS),(Citation: Microsoft - Device Registration),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: Evilginx 2 July 2018),(Citation: Microsoft Nobelium Admin Privileges),(Citation: AWS - IAM Console Best Practices)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT-TA18-106A),(Citation: dhcp_serv_op_events),(Citation: Anomali Template Injection MAR 2018),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: Akamai DGA Mitigation),(Citation: University of Birmingham C2)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: NSA Spotting),(Citation: Harmj0y Domain Trusts),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Removable Media Control),(Citation: Tilbury Windows Credentials),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Microsoft BITS),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Seqrite DoubleExtension),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: HowToGeek ShowExtension),(Citation: Windows RDP Sessions),(Citation: TechNet RDP NLA),(Citation: UCF STIG Elevation Account Enumeration),(Citation: EnableMPRNotifications),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Microsoft WDigest Mit),(Citation: Apple Developer Doco Hardened Runtime),(Citation: reagentc_cmd),(Citation: TechNet Server Operator Scheduled Task)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Remote Use of Local),(Citation: Microsoft COM ACL),(Citation: Microsoft System Wide Com Keys),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Admission Controllers),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Hardening Guide),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: FireEye ADFS),(Citation: TechNet Least Privilege),(Citation: Microsoft runas),(Citation: Microsoft PS JEA),(Citation: TechNet Credential Theft),(Citation: AWS Setting Up Run Command),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft Securing Privileged Access),(Citation: Mandiant Azure Run Command 2021),(Citation: MagicWeb),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Kubernetes Service Accounts),(Citation: Tilbury Windows Credentials),(Citation: Microsoft Replace Process Token),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Process Wide Com Keys),(Citation: TechNet Scheduling Priority),(Citation: FireEye WMI 2015),(Citation: Microsoft Create Token)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Graeber 2014)</t>
+    <t>(Citation: Beechey 2010),(Citation: Wikibooks Grsecurity),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft WDAC),(Citation: SANS Application Whitelisting),(Citation: Microsoft Using Software Restriction ),(Citation: Kernel Self Protection Project),(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: LKM loading kernel restrictions),(Citation: Microsoft PowerShell CLM),(Citation: Technospot Chrome Extensions GP),(Citation: Kubernetes Security Context),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Application Lockdown),(Citation: Default VBS macros Blocking ),(Citation: Kubernetes Hardening Guide),(Citation: Windows Commands JPCERT),(Citation: file_upload_attacks_pt2),(Citation: Kernel.org Restrict Kernel Module),(Citation: Microsoft Driver Block Rules),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: NSA MS AppLocker),(Citation: Dormann Dangers of VHD 2019),(Citation: Increasing Linux kernel integrity)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Windows Defender Application Control),(Citation: Windows Commands JPCERT),(Citation: Beechey 2010),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP),(Citation: Secure Host Baseline EMET),(Citation: NSA MS AppLocker),(Citation: TechNet Moving Beyond EMET),(Citation: Corio 2008)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Secure Ideas SMB Relay),(Citation: Microsoft Preventing SMB),(Citation: RedLock Instance Metadata API 2018),(Citation: US-CERT SMB Security),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT APT Energy Oct 2017),(Citation: CERT-EU DDoS March 2017),(Citation: Juniper DAI 2020),(Citation: byt3bl33d3r NTLM Relaying)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: Docker Daemon Socket Protect),(Citation: Microsoft AKS Azure AD 2023),(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway)</t>
+  </si>
+  <si>
+    <t>(Citation: Expel IO Evil in AWS),(Citation: Amazon S3 Security, 2019),(Citation: Berkley Secure),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Evilginx 2 July 2018),(Citation: Microsoft - Device Registration),(Citation: CISA MFA PrintNightmare),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Nobelium Admin Privileges)</t>
+  </si>
+  <si>
+    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: dhcp_serv_op_events),(Citation: Akamai DGA Mitigation),(Citation: University of Birmingham C2)</t>
+  </si>
+  <si>
+    <t>(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: TechNet Removable Media Control),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Seqrite DoubleExtension),(Citation: Tilbury Windows Credentials),(Citation: reagentc_cmd),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: TechNet RDP NLA),(Citation: Microsoft WDigest Mit),(Citation: Microsoft BITS),(Citation: UCF STIG Elevation Account Enumeration),(Citation: HowToGeek ShowExtension),(Citation: EnableMPRNotifications),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Windows RDP Sessions),(Citation: TechNet Server Operator Scheduled Task)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: store_pwd_rev_enc),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices)</t>
+  </si>
+  <si>
+    <t>(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Service Accounts),(Citation: TechNet Credential Theft),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: MagicWeb),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: FireEye ADFS),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft runas),(Citation: TechNet Least Privilege),(Citation: FireEye WMI 2015),(Citation: Microsoft Replace Process Token),(Citation: Kubernetes Admission Controllers),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Create Token),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Process Wide Com Keys),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft COM ACL),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Tilbury Windows Credentials),(Citation: TechNet Scheduling Priority),(Citation: Mandiant Azure Run Command 2021),(Citation: AWS Setting Up Run Command),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft PS JEA),(Citation: Microsoft Remote Use of Local)</t>
+  </si>
+  <si>
+    <t>(Citation: Graeber 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: create_sym_links),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft DLL Security),(Citation: Microsoft More information about DLL)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging),(Citation: Microsoft System Services Fundamentals)</t>
+    <t>(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: win_xml_evt_log),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links),(Citation: piazza launch agent mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: CyberArk Labs Safe Mode 2016),(Citation: Chromium HSTS),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Wikipedia HPKP),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Cisco Securing SNMP),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: ACSC Email Spoofing),(Citation: CloudSploit - Unused AWS Regions),(Citation: Microsoft Anti Spoofing)</t>
-  </si>
-  <si>
-    <t>(Citation: SensePost Outlook Home Page),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: MS14-025),(Citation: NSA Spotting),(Citation: Github UACMe),(Citation: SensePost Outlook Forms),(Citation: Cisco Blog Legacy Device Attacks)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub IAD Secure Host Baseline UAC Filtering),(Citation: Executable Installers are Vulnerable)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Kubernetes RBAC),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Mandiant M-Trends 2020),(Citation: Wald0 Guide to GPOs),(Citation: MDMProfileConfigMacOS),(Citation: Expel IO Evil in AWS),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Microsoft WMI Filters),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Symantec BITS May 2007),(Citation: Microsoft ETW May 2018),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Amazon S3 Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Office 365 Partner Relationships),(Citation: Microsoft GPO Security Filtering),(Citation: Apple TN2459 Kernel Extensions)</t>
+    <t>(Citation: CyberArk Labs Safe Mode 2016),(Citation: CloudSploit - Unused AWS Regions),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Cisco Securing SNMP),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: ACSC Email Spoofing),(Citation: Microsoft Anti Spoofing),(Citation: Chromium HSTS),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Wikipedia HPKP),(Citation: Palo Alto Office Test Sofacy)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: Github UACMe),(Citation: SensePost Outlook Home Page)</t>
+  </si>
+  <si>
+    <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
+  </si>
+  <si>
+    <t>(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft WMI Filters),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft ETW May 2018),(Citation: Apple TN2459 Kernel Extensions),(Citation: Office 365 Partner Relationships),(Citation: Expel IO Evil in AWS),(Citation: Microsoft Azure Storage Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft GPO Security Filtering),(Citation: MDMProfileConfigMacOS),(Citation: Symantec BITS May 2007),(Citation: Kubernetes RBAC),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft SolarWinds Customer Guidance)</t>
   </si>
   <si>
     <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,106 +783,106 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft MS14-025),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: Microsoft Replication ACL),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Protected Users Security Group),(Citation: STIG krbtgt reset),(Citation: AdSecurity DCSync Sept 2015),(Citation: ADSecurity Mimikatz DCSync),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: ADSecurity Kerberos and KRBTGT)</t>
-  </si>
-  <si>
-    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: SourceForge rkhunter),(Citation: Microsoft AMSI June 2015),(Citation: Chkrootkit Main),(Citation: Mandiant Cloudy Logs 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye DLL Side-Loading),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Bugcrowd Replay Attack),(Citation: Apple App Security Overview),(Citation: Comparitech Replay Attack)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Microsoft Protected View)</t>
-  </si>
-  <si>
-    <t>(Citation: Powersploit),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: SpecterOps Certified Pre Owned),(Citation: GitHub PSPKIAudit),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft Preauthentication Jul 2012),(Citation: MagicWeb),(Citation: Github UACMe),(Citation: Microsoft Sxstrace),(Citation: GitHub Certify),(Citation: FireEye ADFS),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft Get-InboxRule),(Citation: Mandiant Azure AD Backdoors),(Citation: GitHub Bloodhound),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Kubernetes Hardening Guide),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Vulnerability and Exploit Detector),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft CreateProcess)</t>
-  </si>
-  <si>
-    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Obfuscation),(Citation: Malicious Driver Reporting Center),(Citation: Microsoft driver block rules)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: ESET LoJax Sept 2018),(Citation: Intel Hardware-based Security Technologies),(Citation: TechNet Secure Boot Process),(Citation: TCG Trusted Platform Module)</t>
-  </si>
-  <si>
-    <t>(Citation: applescript signing),(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub SHB Credential Guard),(Citation: TechNet Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Credential Guard April 2017),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
-  </si>
-  <si>
-    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Removable Media Control),(Citation: SpecterOps Certified Pre Owned),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft ADV170021 Dec 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Amazon AWS IMDS V2),(Citation: GitHub MOTW),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable Macros),(Citation: Microsoft Disable Autorun),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft BEC Campaign),(Citation: ADSecurity Windows Secure Baseline),(Citation: TechNet Screensaver GP),(Citation: Microsoft Disable DCOM),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Network access Credential Manager),(Citation: Gmail Delegation),(Citation: MRWLabs Office Persistence Add-ins)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Google Cloud Encryption Key Rotation),(Citation: Metcalf 2015),(Citation: Microsoft Primary Refresh Token)</t>
+    <t>(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: ADSecurity Mimikatz DCSync),(Citation: STIG krbtgt reset),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Replication ACL),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft MS14-025)</t>
+  </si>
+  <si>
+    <t>(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: Mandiant Cloudy Logs 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Windows Blogs Microsoft Edge Sandbox)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub PSPKIAudit),(Citation: Powersploit),(Citation: GitHub Bloodhound),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Kubernetes Hardening Guide),(Citation: Vulnerability and Exploit Detector),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant Azure AD Backdoors),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft Sxstrace),(Citation: MagicWeb),(Citation: SpecterOps Certified Pre Owned),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft Get-InboxRule),(Citation: GitHub Certify),(Citation: Microsoft CreateProcess),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: FireEye ADFS),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Dynamic-Link Library Security)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Malicious Driver Reporting Center)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Secure Boot Process),(Citation: Intel Hardware-based Security Technologies),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot)</t>
+  </si>
+  <si>
+    <t>(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Credential Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
+  </si>
+  <si>
+    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Disable VBA Jan 2020),(Citation: Symantec SSH and ssh-agent),(Citation: Gmail Delegation),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: GitHub MOTW),(Citation: TechNet Screensaver GP),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft BEC Campaign),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Amazon AWS IMDS V2),(Citation: SpecterOps Certified Pre Owned),(Citation: TechNet Removable Media Control),(Citation: Microsoft Disable Autorun),(Citation: Microsoft Disable Macros),(Citation: ADSecurity Windows Secure Baseline),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft Disable DCOM),(Citation: Microsoft ADV170021 Dec 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: SpecterOps Certified Pre Owned),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Metcalf 2015),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Google Cloud Encryption Key Rotation)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Beechey 2010),(Citation: Wikibooks Grsecurity),(Citation: TechNet Applocker vs SRP),(Citation: Microsoft WDAC),(Citation: SANS Application Whitelisting),(Citation: Microsoft Using Software Restriction ),(Citation: Kernel Self Protection Project),(Citation: Corio 2008),(Citation: Microsoft Windows Defender Application Control),(Citation: LKM loading kernel restrictions),(Citation: Microsoft PowerShell CLM),(Citation: Technospot Chrome Extensions GP),(Citation: Kubernetes Security Context),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Application Lockdown),(Citation: Default VBS macros Blocking ),(Citation: Kubernetes Hardening Guide),(Citation: Windows Commands JPCERT),(Citation: file_upload_attacks_pt2),(Citation: Kernel.org Restrict Kernel Module),(Citation: Microsoft Driver Block Rules),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: NSA MS AppLocker),(Citation: Dormann Dangers of VHD 2019),(Citation: Increasing Linux kernel integrity)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Windows Defender Application Control),(Citation: Windows Commands JPCERT),(Citation: Beechey 2010),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Applocker vs SRP),(Citation: Secure Host Baseline EMET),(Citation: NSA MS AppLocker),(Citation: TechNet Moving Beyond EMET),(Citation: Corio 2008)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Secure Ideas SMB Relay),(Citation: Microsoft Preventing SMB),(Citation: RedLock Instance Metadata API 2018),(Citation: US-CERT SMB Security),(Citation: Microsoft SMB Packet Signing),(Citation: US-CERT APT Energy Oct 2017),(Citation: CERT-EU DDoS March 2017),(Citation: Juniper DAI 2020),(Citation: byt3bl33d3r NTLM Relaying)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: Docker Daemon Socket Protect),(Citation: Microsoft AKS Azure AD 2023),(Citation: Kubernetes API Control Access),(Citation: TechNet RDP Gateway)</t>
-  </si>
-  <si>
-    <t>(Citation: Expel IO Evil in AWS),(Citation: Amazon S3 Security, 2019),(Citation: Berkley Secure),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Evilginx 2 July 2018),(Citation: Microsoft - Device Registration),(Citation: CISA MFA PrintNightmare),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Nobelium Admin Privileges)</t>
-  </si>
-  <si>
-    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: US-CERT-TA18-106A),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: dhcp_serv_op_events),(Citation: Akamai DGA Mitigation),(Citation: University of Birmingham C2)</t>
-  </si>
-  <si>
-    <t>(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: TechNet Removable Media Control),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Seqrite DoubleExtension),(Citation: Tilbury Windows Credentials),(Citation: reagentc_cmd),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: TechNet RDP NLA),(Citation: Microsoft WDigest Mit),(Citation: Microsoft BITS),(Citation: UCF STIG Elevation Account Enumeration),(Citation: HowToGeek ShowExtension),(Citation: EnableMPRNotifications),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: Windows RDP Sessions),(Citation: TechNet Server Operator Scheduled Task)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: store_pwd_rev_enc),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices)</t>
-  </si>
-  <si>
-    <t>(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Service Accounts),(Citation: TechNet Credential Theft),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: MagicWeb),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: FireEye ADFS),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Microsoft runas),(Citation: TechNet Least Privilege),(Citation: FireEye WMI 2015),(Citation: Microsoft Replace Process Token),(Citation: Kubernetes Admission Controllers),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Create Token),(Citation: Microsoft System Wide Com Keys),(Citation: Microsoft Process Wide Com Keys),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft COM ACL),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Tilbury Windows Credentials),(Citation: TechNet Scheduling Priority),(Citation: Mandiant Azure Run Command 2021),(Citation: AWS Setting Up Run Command),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft PS JEA),(Citation: Microsoft Remote Use of Local)</t>
-  </si>
-  <si>
-    <t>(Citation: Graeber 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA)</t>
+    <t>(Citation: Windows Commands JPCERT),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Hardening Guide),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft WDAC),(Citation: Wikibooks Grsecurity),(Citation: NSA MS AppLocker),(Citation: Increasing Linux kernel integrity),(Citation: LKM loading kernel restrictions),(Citation: Microsoft Windows Defender Application Control),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Security Context),(Citation: Kernel.org Restrict Kernel Module),(Citation: Corio 2008),(Citation: Microsoft Application Lockdown),(Citation: Microsoft Using Software Restriction ),(Citation: SANS Application Whitelisting),(Citation: Dormann Dangers of VHD 2019),(Citation: file_upload_attacks_pt2),(Citation: Beechey 2010),(Citation: Default VBS macros Blocking ),(Citation: Kernel Self Protection Project)</t>
+  </si>
+  <si>
+    <t>(Citation: Wikipedia Control Flow Integrity),(Citation: Windows Commands JPCERT),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: TechNet Moving Beyond EMET),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: Secure Host Baseline EMET)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT SMB Security),(Citation: Microsoft Preventing SMB),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: RedLock Instance Metadata API 2018),(Citation: Microsoft SMB Packet Signing),(Citation: CERT-EU DDoS March 2017),(Citation: Juniper DAI 2020),(Citation: US-CERT APT Energy Oct 2017),(Citation: Secure Ideas SMB Relay)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect),(Citation: Wikipedia 802.1x),(Citation: TechNet RDP Gateway),(Citation: Kubernetes Cloud Native Security)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft - Device Registration),(Citation: Evilginx 2 July 2018),(Citation: Berkley Secure),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: AWS - IAM Console Best Practices),(Citation: CISA MFA PrintNightmare),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Mandiant APT29 Microsoft 365 2022)</t>
+  </si>
+  <si>
+    <t>(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: dhcp_serv_op_events),(Citation: University of Birmingham C2),(Citation: Anomali Template Injection MAR 2018),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT-TA18-106A)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting),(Citation: TechNet Firewall Design)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft BITS),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: TechNet Removable Media Control),(Citation: TechNet Server Operator Scheduled Task),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Windows RDP Sessions),(Citation: HowToGeek ShowExtension),(Citation: EnableMPRNotifications),(Citation: Seqrite DoubleExtension),(Citation: Tilbury Windows Credentials),(Citation: reagentc_cmd),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet RDP NLA),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft WDigest Mit)</t>
+  </si>
+  <si>
+    <t>(Citation: AWS - IAM Console Best Practices),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Remote Use of Local),(Citation: Microsoft PS JEA),(Citation: Microsoft runas),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: ADSecurity AD Kerberos Attacks),(Citation: FireEye WMI 2015),(Citation: Kubernetes Admission Controllers),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft Create Token),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Microsoft System Wide Com Keys),(Citation: MagicWeb),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: TechNet Least Privilege),(Citation: Microsoft COM ACL),(Citation: Microsoft Securing Privileged Access),(Citation: Tilbury Windows Credentials),(Citation: Mandiant Azure Run Command 2021),(Citation: TechNet Credential Theft),(Citation: FireEye ADFS),(Citation: Kubernetes Service Accounts),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Process Wide Com Keys),(Citation: TechNet Scheduling Priority)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Graeber 2014),(Citation: Microsoft Configure LSA)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: win_xml_evt_log),(Citation: Microsoft ETW May 2018),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links),(Citation: piazza launch agent mitigation)</t>
+    <t>(Citation: Microsoft ETW May 2018),(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft System Services Fundamentals),(Citation: def_ev_win_event_logging)</t>
+    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: CyberArk Labs Safe Mode 2016),(Citation: CloudSploit - Unused AWS Regions),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Cisco Securing SNMP),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: ACSC Email Spoofing),(Citation: Microsoft Anti Spoofing),(Citation: Chromium HSTS),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Wikipedia HPKP),(Citation: Palo Alto Office Test Sofacy)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: MS14-025),(Citation: Github UACMe),(Citation: SensePost Outlook Home Page)</t>
+    <t>(Citation: Wikipedia HPKP),(Citation: Microsoft Anti Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: ACSC Email Spoofing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: Chromium HSTS),(Citation: Enigma Reviving DDE Jan 2018),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: CloudSploit - Unused AWS Regions),(Citation: Cisco Securing SNMP)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Home Page),(Citation: SensePost Outlook Forms),(Citation: MS14-025),(Citation: NSA Spotting),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Microsoft WMI Filters),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Wald0 Guide to GPOs),(Citation: Microsoft ETW May 2018),(Citation: Apple TN2459 Kernel Extensions),(Citation: Office 365 Partner Relationships),(Citation: Expel IO Evil in AWS),(Citation: Microsoft Azure Storage Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft GPO Security Filtering),(Citation: MDMProfileConfigMacOS),(Citation: Symantec BITS May 2007),(Citation: Kubernetes RBAC),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft SolarWinds Customer Guidance)</t>
-  </si>
-  <si>
-    <t>(Citation: CISA Phishing),(Citation: Re-Open windows on Mac)</t>
+    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft ETW May 2018),(Citation: Kubernetes RBAC),(Citation: Kubernetes Hardening Guide),(Citation: UCF STIG Symbolic Links),(Citation: Wald0 Guide to GPOs),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Amazon S3 Security, 2019),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Symantec BITS May 2007),(Citation: Microsoft GPO Security Filtering),(Citation: Mandiant M-Trends 2020),(Citation: Apple TN2459 Kernel Extensions),(Citation: Microsoft WMI Filters),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Expel IO Evil in AWS),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: MDMProfileConfigMacOS),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Office 365 Partner Relationships)</t>
+  </si>
+  <si>
+    <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>
   </si>
   <si>
     <t>(Citation: OWASP Top 10)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,103 +783,103 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: SpecterOps Certified Pre Owned),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: ADSecurity Mimikatz DCSync),(Citation: STIG krbtgt reset),(Citation: Microsoft Protected Users Security Group),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Replication ACL),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft MS14-025)</t>
-  </si>
-  <si>
-    <t>(Citation: Chkrootkit Main),(Citation: SourceForge rkhunter),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: Mandiant Cloudy Logs 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Apple Developer Doco Hardened Runtime),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Protected View),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Windows Blogs Microsoft Edge Sandbox)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub PSPKIAudit),(Citation: Powersploit),(Citation: GitHub Bloodhound),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Kubernetes Hardening Guide),(Citation: Vulnerability and Exploit Detector),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant Azure AD Backdoors),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft Sxstrace),(Citation: MagicWeb),(Citation: SpecterOps Certified Pre Owned),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Microsoft Get-InboxRule),(Citation: GitHub Certify),(Citation: Microsoft CreateProcess),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: FireEye ADFS),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: Github UACMe),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Microsoft Dynamic-Link Library Security)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft ASR Obfuscation),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Malicious Driver Reporting Center)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Secure Boot Process),(Citation: Intel Hardware-based Security Technologies),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: ESET LoJax Sept 2018),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot)</t>
-  </si>
-  <si>
-    <t>(Citation: applescript signing),(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Microsoft Credential Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA)</t>
+    <t>(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Protected Users Security Group),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Replication ACL),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: AdSecurity DCSync Sept 2015),(Citation: STIG krbtgt reset),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft MS14-025)</t>
+  </si>
+  <si>
+    <t>(Citation: Chkrootkit Main),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Bugcrowd Replay Attack),(Citation: Comparitech Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Windows Blogs Microsoft Edge Sandbox)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: MagicWeb),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Powersploit),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Preauthentication Jul 2012),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Mandiant Cloudy Logs 2023),(Citation: SpecterOps Certified Pre Owned),(Citation: FireEye ADFS),(Citation: Microsoft Sxstrace),(Citation: Mandiant Azure AD Backdoors),(Citation: Github UACMe),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Microsoft Get-InboxRule),(Citation: Vulnerability and Exploit Detector),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: GitHub Certify),(Citation: GitHub PSPKIAudit),(Citation: Microsoft CreateProcess),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: GitHub Bloodhound)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Microsoft ASR Obfuscation),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Malicious Driver Reporting Center)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TechNet Secure Boot Process),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: ESET LoJax Sept 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: applescript signing)</t>
+  </si>
+  <si>
+    <t>(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Credential Guard April 2017)</t>
   </si>
   <si>
     <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Disable VBA Jan 2020),(Citation: Symantec SSH and ssh-agent),(Citation: Gmail Delegation),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: GitHub MOTW),(Citation: TechNet Screensaver GP),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft BEC Campaign),(Citation: MRWLabs Office Persistence Add-ins),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Amazon AWS IMDS V2),(Citation: SpecterOps Certified Pre Owned),(Citation: TechNet Removable Media Control),(Citation: Microsoft Disable Autorun),(Citation: Microsoft Disable Macros),(Citation: ADSecurity Windows Secure Baseline),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: ITSyndicate Disabling PHP functions),(Citation: Microsoft Network access Credential Manager),(Citation: Microsoft Disable DCOM),(Citation: Microsoft ADV170021 Dec 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: SpecterOps Certified Pre Owned),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Metcalf 2015),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Primary Refresh Token),(Citation: Microsoft Azure Storage Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Google Cloud Encryption Key Rotation)</t>
+    <t>(Citation: GitHub MOTW),(Citation: ITSyndicate Disabling PHP functions),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Disable Macros),(Citation: MRWLabs Office Persistence Add-ins),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Disable DCOM),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft BEC Campaign),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft Disable Autorun),(Citation: Gmail Delegation),(Citation: Microsoft ADV170021 Dec 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: TechNet Removable Media Control),(Citation: Microsoft Network access Credential Manager),(Citation: TechNet Screensaver GP)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: SpecterOps Certified Pre Owned),(Citation: Metcalf 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Primary Refresh Token)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: Windows Commands JPCERT),(Citation: Microsoft PowerShell CLM),(Citation: Kubernetes Hardening Guide),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft WDAC),(Citation: Wikibooks Grsecurity),(Citation: NSA MS AppLocker),(Citation: Increasing Linux kernel integrity),(Citation: LKM loading kernel restrictions),(Citation: Microsoft Windows Defender Application Control),(Citation: TechNet Applocker vs SRP),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Kubernetes Security Context),(Citation: Kernel.org Restrict Kernel Module),(Citation: Corio 2008),(Citation: Microsoft Application Lockdown),(Citation: Microsoft Using Software Restriction ),(Citation: SANS Application Whitelisting),(Citation: Dormann Dangers of VHD 2019),(Citation: file_upload_attacks_pt2),(Citation: Beechey 2010),(Citation: Default VBS macros Blocking ),(Citation: Kernel Self Protection Project)</t>
-  </si>
-  <si>
-    <t>(Citation: Wikipedia Control Flow Integrity),(Citation: Windows Commands JPCERT),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: TechNet Moving Beyond EMET),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: Secure Host Baseline EMET)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT SMB Security),(Citation: Microsoft Preventing SMB),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: RedLock Instance Metadata API 2018),(Citation: Microsoft SMB Packet Signing),(Citation: CERT-EU DDoS March 2017),(Citation: Juniper DAI 2020),(Citation: US-CERT APT Energy Oct 2017),(Citation: Secure Ideas SMB Relay)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect),(Citation: Wikipedia 802.1x),(Citation: TechNet RDP Gateway),(Citation: Kubernetes Cloud Native Security)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Nobelium Admin Privileges),(Citation: Expel IO Evil in AWS),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft - Device Registration),(Citation: Evilginx 2 July 2018),(Citation: Berkley Secure),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: AWS - IAM Console Best Practices),(Citation: CISA MFA PrintNightmare),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Mandiant APT29 Microsoft 365 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: Akamai DGA Mitigation),(Citation: Cisco Umbrella DGA Brute Force),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: dhcp_serv_op_events),(Citation: University of Birmingham C2),(Citation: Anomali Template Injection MAR 2018),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT-TA18-106A)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting),(Citation: TechNet Firewall Design)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft BITS),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: TechNet Removable Media Control),(Citation: TechNet Server Operator Scheduled Task),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Windows RDP Sessions),(Citation: HowToGeek ShowExtension),(Citation: EnableMPRNotifications),(Citation: Seqrite DoubleExtension),(Citation: Tilbury Windows Credentials),(Citation: reagentc_cmd),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechNet RDP NLA),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: Microsoft WDigest Mit)</t>
-  </si>
-  <si>
-    <t>(Citation: AWS - IAM Console Best Practices),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: store_pwd_rev_enc),(Citation: NIST 800-63-3),(Citation: Microsoft Install Password Filter n.d),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Remote Use of Local),(Citation: Microsoft PS JEA),(Citation: Microsoft runas),(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: ADSecurity AD Kerberos Attacks),(Citation: FireEye WMI 2015),(Citation: Kubernetes Admission Controllers),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft Create Token),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: Microsoft System Wide Com Keys),(Citation: MagicWeb),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: TechNet Least Privilege),(Citation: Microsoft COM ACL),(Citation: Microsoft Securing Privileged Access),(Citation: Tilbury Windows Credentials),(Citation: Mandiant Azure Run Command 2021),(Citation: TechNet Credential Theft),(Citation: FireEye ADFS),(Citation: Kubernetes Service Accounts),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Process Wide Com Keys),(Citation: TechNet Scheduling Priority)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Graeber 2014),(Citation: Microsoft Configure LSA)</t>
+    <t>(Citation: TechNet Applocker vs SRP),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes Security Context),(Citation: SANS Application Whitelisting),(Citation: Microsoft Using Software Restriction ),(Citation: file_upload_attacks_pt2),(Citation: Default VBS macros Blocking ),(Citation: Microsoft Application Lockdown),(Citation: Wikibooks Grsecurity),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft PowerShell CLM),(Citation: Kernel Self Protection Project),(Citation: Kernel.org Restrict Kernel Module),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Dormann Dangers of VHD 2019),(Citation: LKM loading kernel restrictions),(Citation: Windows Commands JPCERT),(Citation: Microsoft WDAC),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: Increasing Linux kernel integrity)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Applocker vs SRP),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Moving Beyond EMET),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: Windows Commands JPCERT),(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft SMB Packet Signing),(Citation: RedLock Instance Metadata API 2018),(Citation: Secure Ideas SMB Relay),(Citation: Microsoft Preventing SMB),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: CERT-EU DDoS March 2017),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT SMB Security),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Juniper DAI 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Expel IO Evil in AWS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Evilginx 2 July 2018),(Citation: Microsoft - Device Registration),(Citation: Amazon S3 Security, 2019),(Citation: CISA MFA PrintNightmare),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: AWS - IAM Console Best Practices)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT-TA18-106A),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: dhcp_serv_op_events),(Citation: Akamai DGA Mitigation),(Citation: Anomali Template Injection MAR 2018),(Citation: University of Birmingham C2),(Citation: Cybereason Dissecting DGAs)</t>
+  </si>
+  <si>
+    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft WDigest Mit),(Citation: Microsoft BITS),(Citation: reagentc_cmd),(Citation: EnableMPRNotifications),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechNet Removable Media Control),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: HowToGeek ShowExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet RDP NLA),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Windows RDP Sessions),(Citation: Tilbury Windows Credentials),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Seqrite DoubleExtension),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: TechNet Server Operator Scheduled Task)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices),(Citation: NIST 800-63-3)</t>
+  </si>
+  <si>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: MagicWeb),(Citation: TechNet Scheduling Priority),(Citation: Microsoft System Wide Com Keys),(Citation: Tilbury Windows Credentials),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Create Token),(Citation: Microsoft PS JEA),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Least Privilege),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: FireEye ADFS),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Remote Use of Local),(Citation: FireEye WMI 2015),(Citation: TechNet Credential Theft),(Citation: Microsoft Securing Privileged Access),(Citation: Kubernetes Service Accounts),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Admission Controllers),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: AWS Setting Up Run Command),(Citation: Microsoft runas),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft COM ACL)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA),(Citation: Graeber 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft ETW May 2018),(Citation: win_xml_evt_log),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: piazza launch agent mitigation),(Citation: Microsoft W32Time May 2017),(Citation: create_sym_links)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security)</t>
-  </si>
-  <si>
-    <t>(Citation: def_ev_win_event_logging),(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017)</t>
+    <t>(Citation: piazza launch agent mitigation),(Citation: Microsoft W32Time May 2017),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: win_xml_evt_log),(Citation: create_sym_links)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging)</t>
   </si>
   <si>
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: Wikipedia HPKP),(Citation: Microsoft Anti Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: ACSC Email Spoofing),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: Chromium HSTS),(Citation: Enigma Reviving DDE Jan 2018),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: CloudSploit - Unused AWS Regions),(Citation: Cisco Securing SNMP)</t>
-  </si>
-  <si>
-    <t>(Citation: Github UACMe),(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Home Page),(Citation: SensePost Outlook Forms),(Citation: MS14-025),(Citation: NSA Spotting),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
+    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: Microsoft Anti Spoofing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: CloudSploit - Unused AWS Regions),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: ACSC Email Spoofing),(Citation: Wikipedia HPKP),(Citation: Cisco Securing SNMP),(Citation: Chromium HSTS)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: SensePost Outlook Home Page),(Citation: MS14-025),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft ETW May 2018),(Citation: Kubernetes RBAC),(Citation: Kubernetes Hardening Guide),(Citation: UCF STIG Symbolic Links),(Citation: Wald0 Guide to GPOs),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Amazon S3 Security, 2019),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Symantec BITS May 2007),(Citation: Microsoft GPO Security Filtering),(Citation: Mandiant M-Trends 2020),(Citation: Apple TN2459 Kernel Extensions),(Citation: Microsoft WMI Filters),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: Expel IO Evil in AWS),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: MDMProfileConfigMacOS),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Office 365 Partner Relationships)</t>
+    <t>(Citation: Kubernetes Hardening Guide),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: MDMProfileConfigMacOS),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: UCF STIG Symbolic Links),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft GPO Security Filtering),(Citation: Office 365 Partner Relationships),(Citation: Apple TN2459 Kernel Extensions),(Citation: Microsoft WMI Filters),(Citation: Expel IO Evil in AWS),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft ETW May 2018),(Citation: Wald0 Guide to GPOs),(Citation: Symantec BITS May 2007),(Citation: Kubernetes RBAC)</t>
   </si>
   <si>
     <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>

--- a/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
+++ b/versions/v14/docs/enterprise-attack-v14.1/enterprise-attack-v14.1-mitigations.xlsx
@@ -783,85 +783,85 @@
     <t>(Citation: Microsoft Common Conditional Access Policies)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Netdom Trust Sept 2012),(Citation: Microsoft Protected Users Security Group),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft Replication ACL),(Citation: Microsoft Trust Considerations Nov 2014),(Citation: AdSecurity DCSync Sept 2015),(Citation: STIG krbtgt reset),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft MS14-025)</t>
-  </si>
-  <si>
-    <t>(Citation: Chkrootkit Main),(Citation: Microsoft AMSI June 2015),(Citation: Anomali Template Injection MAR 2018),(Citation: SourceForge rkhunter),(Citation: Mandiant Cloudy Logs 2023)</t>
-  </si>
-  <si>
-    <t>(Citation: Bugcrowd Replay Attack),(Citation: Comparitech Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: FireEye DLL Side-Loading),(Citation: Apple App Security Overview)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Windows Blogs Microsoft Edge Sandbox)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: MagicWeb),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: Powersploit),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Preauthentication Jul 2012),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Mandiant Cloudy Logs 2023),(Citation: SpecterOps Certified Pre Owned),(Citation: FireEye ADFS),(Citation: Microsoft Sxstrace),(Citation: Mandiant Azure AD Backdoors),(Citation: Github UACMe),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Microsoft Get-InboxRule),(Citation: Vulnerability and Exploit Detector),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: GitHub Certify),(Citation: GitHub PSPKIAudit),(Citation: Microsoft CreateProcess),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: GitHub Bloodhound)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft ASR Nov 2017),(Citation: win10_asr),(Citation: Microsoft ASR Obfuscation),(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Malicious Driver Reporting Center)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: TechNet Secure Boot Process),(Citation: TCG Trusted Platform Module),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: Intel Hardware-based Security Technologies),(Citation: ESET LoJax Sept 2018)</t>
-  </si>
-  <si>
-    <t>(Citation: Content trust in Azure Container Registry),(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: applescript signing)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub SHB Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Credential Guard April 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Rhino S3 Ransomware Part 2),(Citation: Ready.gov IT DRP),(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022)</t>
-  </si>
-  <si>
-    <t>(Citation: GitHub MOTW),(Citation: ITSyndicate Disabling PHP functions),(Citation: Amazon AWS IMDS V2),(Citation: Microsoft Disable Macros),(Citation: MRWLabs Office Persistence Add-ins),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Disable VBA Jan 2020),(Citation: Microsoft Disable DCOM),(Citation: ADSecurity Windows Secure Baseline),(Citation: Microsoft BEC Campaign),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft Disable Autorun),(Citation: Gmail Delegation),(Citation: Microsoft ADV170021 Dec 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Symantec SSH and ssh-agent),(Citation: TechNet Removable Media Control),(Citation: Microsoft Network access Credential Manager),(Citation: TechNet Screensaver GP)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Cloud Encryption Key Rotation),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: SpecterOps Certified Pre Owned),(Citation: Metcalf 2015),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Amazon S3 Security, 2019),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Primary Refresh Token)</t>
+    <t>(Citation: Mandiant Defend UNC2452 White Paper),(Citation: Microsoft Protected Users Security Group),(Citation: Microsoft MS14-025),(Citation: AdSecurity DCSync Sept 2015),(Citation: Microsoft Netdom Trust Sept 2012),(Citation: AdSecurity Kerberos GT Aug 2015),(Citation: Microsoft Replication ACL),(Citation: ADSecurity Mimikatz DCSync),(Citation: Microsoft SID Filtering Quarantining Jan 2009),(Citation: SpecterOps Certified Pre Owned),(Citation: ADSecurity Kerberos and KRBTGT),(Citation: STIG krbtgt reset),(Citation: Microsoft Trust Considerations Nov 2014)</t>
+  </si>
+  <si>
+    <t>(Citation: Anomali Template Injection MAR 2018),(Citation: Microsoft AMSI June 2015),(Citation: Chkrootkit Main),(Citation: Mandiant Cloudy Logs 2023),(Citation: SourceForge rkhunter)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye DLL Side-Loading),(Citation: Comparitech Replay Attack),(Citation: Bugcrowd Replay Attack),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Apple App Security Overview)</t>
+  </si>
+  <si>
+    <t>(Citation: Ars Technica Pwn2Own 2017 VM Escape),(Citation: Microsoft Protected View),(Citation: Windows Blogs Microsoft Edge Sandbox),(Citation: Kubernetes Hardening Guide)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: Cisco IOS Software Integrity Assurance - Image File Integrity),(Citation: Mandiant Azure AD Backdoors),(Citation: Powersploit),(Citation: Microsoft CreateProcess),(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Cisco IOS Software Integrity Assurance - Image File Verification),(Citation: Mandiant Cloudy Logs 2023),(Citation: Microsoft Tim McMichael Exchange Mail Forwarding 2),(Citation: GitHub Bloodhound),(Citation: Stealthbits Cracking AS-REP Roasting Jun 2019),(Citation: GitHub PSPKIAudit),(Citation: Microsoft Manage Mail Flow Rules 2023),(Citation: Vulnerability and Exploit Detector),(Citation: Kifarunix - Task Scheduling in Linux),(Citation: FireEye ADFS),(Citation: GitHub Certify),(Citation: Microsoft Sxstrace),(Citation: Secureworks - AT.exe Scheduled Task),(Citation: Pfammatter - Hidden Inbox Rules),(Citation: Microsoft Preauthentication Jul 2012),(Citation: Microsoft Dynamic-Link Library Security),(Citation: Cisco IOS Software Integrity Assurance - Change Control),(Citation: Microsoft Get-InboxRule),(Citation: MagicWeb),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: Kubernetes Hardening Guide)</t>
+  </si>
+  <si>
+    <t>(Citation: Enigma Reviving DDE Jan 2018),(Citation: Microsoft driver block rules),(Citation: Microsoft_rec_block_rules),(Citation: Microsoft ASR Nov 2017),(Citation: Malicious Driver Reporting Center),(Citation: win10_asr),(Citation: Microsoft ASR Obfuscation)</t>
+  </si>
+  <si>
+    <t>(Citation: Intel Hardware-based Security Technologies),(Citation: TCG Trusted Platform Module),(Citation: Microsoft TESTSIGNING Feb 2021),(Citation: ESET LoJax Sept 2018),(Citation: Cisco IOS Software Integrity Assurance - Secure Boot),(Citation: TechNet Secure Boot Process)</t>
+  </si>
+  <si>
+    <t>(Citation: Content trust in Docker),(Citation: Cisco IOS Software Integrity Assurance - Deploy Signed IOS),(Citation: Content trust in Azure Container Registry),(Citation: applescript signing)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Credential Guard April 2017),(Citation: TechNet Credential Guard),(Citation: Microsoft Enable Cred Guard April 2017),(Citation: GitHub SHB Credential Guard),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Cisco IOS Software Integrity Assurance - Credentials Management)</t>
+  </si>
+  <si>
+    <t>(Citation: Unit 42 Palo Alto Ransomware in Public Clouds 2022),(Citation: Ready.gov IT DRP),(Citation: Rhino S3 Ransomware Part 2)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft BEC Campaign),(Citation: Microsoft AlwaysInstallElevated 2018),(Citation: Microsoft Disable DCOM),(Citation: TechNet Screensaver GP),(Citation: TechNet Removable Media Control),(Citation: ADSecurity Windows Secure Baseline),(Citation: SpecterOps Certified Pre Owned),(Citation: Microsoft Network access Credential Manager),(Citation: Gmail Delegation),(Citation: Amazon AWS IMDS V2),(Citation: Symantec SSH and ssh-agent),(Citation: Microsoft DDE Advisory Nov 2017),(Citation: GitHub MOTW),(Citation: Microsoft Disable VBA Jan 2020),(Citation: BleepingComputer DDE Disabled in Word Dec 2017),(Citation: Microsoft Disable Autorun),(Citation: MRWLabs Office Persistence Add-ins),(Citation: ITSyndicate Disabling PHP functions),(Citation: Apple Unified Log Analysis Remote Login and Screen Sharing),(Citation: Microsoft ADV170021 Dec 2017),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Microsoft Disable Macros)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Azure Storage Security, 2019),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Amazon S3 Security, 2019),(Citation: SpecterOps Certified Pre Owned),(Citation: Google Cloud Encryption Key Rotation),(Citation: Metcalf 2015),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Primary Refresh Token)</t>
   </si>
   <si>
     <t>(Citation: Securing bash history)</t>
   </si>
   <si>
-    <t>(Citation: TechNet Applocker vs SRP),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes Security Context),(Citation: SANS Application Whitelisting),(Citation: Microsoft Using Software Restriction ),(Citation: file_upload_attacks_pt2),(Citation: Default VBS macros Blocking ),(Citation: Microsoft Application Lockdown),(Citation: Wikibooks Grsecurity),(Citation: Microsoft Driver Block Rules),(Citation: Microsoft PowerShell CLM),(Citation: Kernel Self Protection Project),(Citation: Kernel.org Restrict Kernel Module),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Dormann Dangers of VHD 2019),(Citation: LKM loading kernel restrictions),(Citation: Windows Commands JPCERT),(Citation: Microsoft WDAC),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: Increasing Linux kernel integrity)</t>
-  </si>
-  <si>
-    <t>(Citation: TechNet Applocker vs SRP),(Citation: Wikipedia Control Flow Integrity),(Citation: TechNet Moving Beyond EMET),(Citation: Beechey 2010),(Citation: Corio 2008),(Citation: Windows Commands JPCERT),(Citation: Secure Host Baseline EMET),(Citation: Microsoft Windows Defender Application Control),(Citation: NSA MS AppLocker)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft SMB Packet Signing),(Citation: RedLock Instance Metadata API 2018),(Citation: Secure Ideas SMB Relay),(Citation: Microsoft Preventing SMB),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: byt3bl33d3r NTLM Relaying),(Citation: CERT-EU DDoS March 2017),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT SMB Security),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: Juniper DAI 2020)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Cloud Native Security),(Citation: Wikipedia 802.1x),(Citation: TechNet RDP Gateway),(Citation: Kubernetes API Control Access),(Citation: Microsoft AKS Azure AD 2023),(Citation: Docker Daemon Socket Protect)</t>
-  </si>
-  <si>
-    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Expel IO Evil in AWS),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Evilginx 2 July 2018),(Citation: Microsoft - Device Registration),(Citation: Amazon S3 Security, 2019),(Citation: CISA MFA PrintNightmare),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: AWS - IAM Console Best Practices)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT-TA18-106A),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cisco Umbrella DGA Brute Force),(Citation: dhcp_serv_op_events),(Citation: Akamai DGA Mitigation),(Citation: Anomali Template Injection MAR 2018),(Citation: University of Birmingham C2),(Citation: Cybereason Dissecting DGAs)</t>
-  </si>
-  <si>
-    <t>(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft WDigest Mit),(Citation: Microsoft BITS),(Citation: reagentc_cmd),(Citation: EnableMPRNotifications),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: UCF STIG Elevation Account Enumeration),(Citation: TechNet Removable Media Control),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: HowToGeek ShowExtension),(Citation: Apple Developer Doco Hardened Runtime),(Citation: TechNet RDP NLA),(Citation: SpectorOps Code Signing Dec 2017),(Citation: Windows RDP Sessions),(Citation: Tilbury Windows Credentials),(Citation: Windows Anonymous Enumeration of SAM Accounts),(Citation: Seqrite DoubleExtension),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: TechNet Server Operator Scheduled Task)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: store_pwd_rev_enc),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: AWS - IAM Console Best Practices),(Citation: NIST 800-63-3)</t>
-  </si>
-  <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Microsoft Replace Process Token),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: MagicWeb),(Citation: TechNet Scheduling Priority),(Citation: Microsoft System Wide Com Keys),(Citation: Tilbury Windows Credentials),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Microsoft Create Token),(Citation: Microsoft PS JEA),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Least Privilege),(Citation: Microsoft Process Wide Com Keys),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: FireEye ADFS),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Microsoft Remote Use of Local),(Citation: FireEye WMI 2015),(Citation: TechNet Credential Theft),(Citation: Microsoft Securing Privileged Access),(Citation: Kubernetes Service Accounts),(Citation: ADSecurity AD Kerberos Attacks),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Kubernetes Admission Controllers),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: AWS Setting Up Run Command),(Citation: Microsoft runas),(Citation: Mandiant Azure Run Command 2021),(Citation: Microsoft COM ACL)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft Configure LSA),(Citation: Microsoft LSA),(Citation: Graeber 2014)</t>
+    <t>(Citation: Microsoft Using Software Restriction ),(Citation: Default VBS macros Blocking ),(Citation: Beechey 2010),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Microsoft ISAPICGIRestriction 2016),(Citation: Kernel.org Restrict Kernel Module),(Citation: Corio 2008),(Citation: Microsoft WDAC),(Citation: LKM loading kernel restrictions),(Citation: NSA MS AppLocker),(Citation: Technospot Chrome Extensions GP),(Citation: Microsoft Application Lockdown),(Citation: Dormann Dangers of VHD 2019),(Citation: Windows Commands JPCERT),(Citation: Microsoft Driver Block Rules),(Citation: file_upload_attacks_pt2),(Citation: TechNet Applocker vs SRP),(Citation: Increasing Linux kernel integrity),(Citation: Microsoft PowerShell CLM),(Citation: Microsoft Windows Defender Application Control),(Citation: Kernel Self Protection Project),(Citation: Kubernetes Security Context),(Citation: Wikibooks Grsecurity),(Citation: SANS Application Whitelisting),(Citation: Kubernetes Hardening Guide)</t>
+  </si>
+  <si>
+    <t>(Citation: Beechey 2010),(Citation: Microsoft Windows Defender Application Control),(Citation: Corio 2008),(Citation: Wikipedia Control Flow Integrity),(Citation: Secure Host Baseline EMET),(Citation: NSA MS AppLocker),(Citation: TechNet Applocker vs SRP),(Citation: Windows Commands JPCERT),(Citation: TechNet Moving Beyond EMET)</t>
+  </si>
+  <si>
+    <t>(Citation: CERT-EU DDoS March 2017),(Citation: US-CERT TA17-156A SNMP Abuse 2017),(Citation: Cisco ARP Poisoning Mitigation 2016),(Citation: ntlm_relaying_kerberos_del),(Citation: US-CERT SMB Security),(Citation: Secure Ideas SMB Relay),(Citation: US-CERT APT Energy Oct 2017),(Citation: Microsoft SMB Packet Signing),(Citation: RedLock Instance Metadata API 2018),(Citation: Microsoft Preventing SMB),(Citation: byt3bl33d3r NTLM Relaying),(Citation: Juniper DAI 2020)</t>
+  </si>
+  <si>
+    <t>(Citation: Wikipedia 802.1x),(Citation: Kubernetes API Control Access),(Citation: Kubernetes Cloud Native Security),(Citation: Docker Daemon Socket Protect),(Citation: TechNet RDP Gateway),(Citation: Microsoft AKS Azure AD 2023)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: Evilginx 2 July 2018),(Citation: AWS - IAM Console Best Practices),(Citation: Microsoft Nobelium Admin Privileges),(Citation: Amazon S3 Security, 2019),(Citation: Mandiant APT29 Microsoft 365 2022),(Citation: MFA Fatigue Attacks - PortSwigger),(Citation: Berkley Secure),(Citation: Expel IO Evil in AWS),(Citation: Microsoft - Device Registration),(Citation: CISA MFA PrintNightmare)</t>
+  </si>
+  <si>
+    <t>(Citation: Cisco Umbrella DGA Brute Force),(Citation: University of Birmingham C2),(Citation: Anomali Template Injection MAR 2018),(Citation: dhcp_serv_op_events),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Cybereason Dissecting DGAs),(Citation: US-CERT-TA18-106A),(Citation: Akamai DGA Mitigation)</t>
+  </si>
+  <si>
+    <t>(Citation: TechNet Firewall Design),(Citation: Harmj0y Domain Trusts),(Citation: NSA Spotting),(Citation: US-CERT TA17-156A SNMP Abuse 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft BITS),(Citation: TechNet RDP NLA),(Citation: Microsoft Disable NTLM Nov 2012),(Citation: UCF STIG Elevation Account Enumeration),(Citation: Apple Developer Doco Hardened Runtime),(Citation: Windows RDP Sessions),(Citation: TechNet Server Operator Scheduled Task),(Citation: Microsoft GPO Bluetooth FEB 2009),(Citation: EnableMPRNotifications),(Citation: TechNet Removable Media Control),(Citation: reagentc_cmd),(Citation: Microsoft WDigest Mit),(Citation: Tilbury Windows Credentials),(Citation: Seqrite DoubleExtension),(Citation: SpectorOps Code Signing Dec 2017),(Citation: TechRepublic Wireless GPO FEB 2009),(Citation: HowToGeek ShowExtension),(Citation: Windows Anonymous Enumeration of SAM Accounts)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Install Password Filter n.d),(Citation: AWS - IAM Console Best Practices),(Citation: US-CERT Alert TA13-175A Risks of Default Passwords on the Internet),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: NIST 800-63-3),(Citation: store_pwd_rev_enc)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Remote Use of Local),(Citation: AWS Setting Up Run Command),(Citation: Microsoft Replace Process Token),(Citation: Cisco IOS Software Integrity Assurance - TACACS),(Citation: CyberArk Labs Safe Mode 2016),(Citation: Microsoft runas),(Citation: Microsoft PS JEA),(Citation: AdSecurity Cracking Kerberos Dec 2015),(Citation: Mandiant Azure Run Command 2021),(Citation: Kubernetes Service Accounts),(Citation: Microsoft Azure security baseline for Azure Active Directory),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: FireEye ADFS),(Citation: ADSecurity AD Kerberos Attacks),(Citation: FireEye WMI 2015),(Citation: Microsoft Requests for Azure AD Roles in Privileged Identity Management),(Citation: Microsoft Securing Privileged Access),(Citation: Microsoft Security Alerts for Azure AD Roles),(Citation: Microsoft System Wide Com Keys),(Citation: TechNet Scheduling Priority),(Citation: Microsoft COM ACL),(Citation: Protecting Microsoft 365 From On-Premises Attacks),(Citation: Microsoft Create Token),(Citation: Kubernetes Hardening Guide),(Citation: MagicWeb),(Citation: TechNet Least Privilege),(Citation: Tilbury Windows Credentials),(Citation: Kubernetes Admission Controllers),(Citation: Microsoft Process Wide Com Keys),(Citation: Netspi PowerShell Execution Policy Bypass),(Citation: TechNet Credential Theft)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft LSA Protection Mar 2014),(Citation: Microsoft LSA),(Citation: Microsoft Configure LSA),(Citation: Graeber 2014)</t>
   </si>
   <si>
     <t>(Citation: Ready.gov IT DRP)</t>
   </si>
   <si>
-    <t>(Citation: piazza launch agent mitigation),(Citation: Microsoft W32Time May 2017),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: cisco_deploy_rsa_keys),(Citation: Microsoft ETW May 2018),(Citation: win_xml_evt_log),(Citation: create_sym_links)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order),(Citation: Microsoft More information about DLL)</t>
+    <t>(Citation: Microsoft W32Time May 2017),(Citation: Microsoft ETW May 2018),(Citation: piazza launch agent mitigation),(Citation: cisco_deploy_rsa_keys),(Citation: create_sym_links),(Citation: InsiderThreat NTFS EA Oct 2017),(Citation: win_xml_evt_log)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft More information about DLL),(Citation: Microsoft DLL Security),(Citation: Microsoft Dynamic Link Library Search Order)</t>
   </si>
   <si>
     <t>(Citation: Microsoft System Services Fundamentals),(Citation: Microsoft W32Time May 2017),(Citation: def_ev_win_event_logging)</t>
@@ -870,16 +870,16 @@
     <t>(Citation: Microsoft Azure AD Admin Consent)</t>
   </si>
   <si>
-    <t>(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Palo Alto Office Test Sofacy),(Citation: Microsoft Anti Spoofing),(Citation: Enigma Reviving DDE Jan 2018),(Citation: CyberArk Labs Safe Mode 2016),(Citation: CloudSploit - Unused AWS Regions),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: ACSC Email Spoofing),(Citation: Wikipedia HPKP),(Citation: Cisco Securing SNMP),(Citation: Chromium HSTS)</t>
-  </si>
-  <si>
-    <t>(Citation: Github UACMe),(Citation: SensePost Outlook Home Page),(Citation: MS14-025),(Citation: SensePost Outlook Forms),(Citation: NSA Spotting),(Citation: Cisco Blog Legacy Device Attacks),(Citation: ADSecurity Finding Passwords in SYSVOL)</t>
+    <t>(Citation: Cisco Securing SNMP),(Citation: Palo Alto Office Test Sofacy),(Citation: ACSC Email Spoofing),(Citation: CyberArk Labs Safe Mode 2016),(Citation: GitHub Disable DDEAUTO Oct 2017),(Citation: Wikipedia HPKP),(Citation: US-CERT TA18-106A Network Infrastructure Devices 2018),(Citation: Microsoft Anti Spoofing),(Citation: Chromium HSTS),(Citation: CloudSploit - Unused AWS Regions),(Citation: Enigma Reviving DDE Jan 2018)</t>
+  </si>
+  <si>
+    <t>(Citation: Github UACMe),(Citation: Cisco Blog Legacy Device Attacks),(Citation: SensePost Outlook Forms),(Citation: ADSecurity Finding Passwords in SYSVOL),(Citation: SensePost Outlook Home Page),(Citation: NSA Spotting),(Citation: MS14-025)</t>
   </si>
   <si>
     <t>(Citation: Executable Installers are Vulnerable),(Citation: GitHub IAD Secure Host Baseline UAC Filtering)</t>
   </si>
   <si>
-    <t>(Citation: Kubernetes Hardening Guide),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: MDMProfileConfigMacOS),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Amazon S3 Security, 2019),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: UCF STIG Symbolic Links),(Citation: Mandiant M-Trends 2020),(Citation: Microsoft GPO Security Filtering),(Citation: Office 365 Partner Relationships),(Citation: Apple TN2459 Kernel Extensions),(Citation: Microsoft WMI Filters),(Citation: Expel IO Evil in AWS),(Citation: Microsoft Azure Storage Security, 2019),(Citation: Microsoft ETW May 2018),(Citation: Wald0 Guide to GPOs),(Citation: Symantec BITS May 2007),(Citation: Kubernetes RBAC)</t>
+    <t>(Citation: Microsoft ETW May 2018),(Citation: Microsoft SolarWinds Customer Guidance),(Citation: Symantec BITS May 2007),(Citation: MDMProfileConfigMacOS),(Citation: Amazon S3 Security, 2019),(Citation: Microsoft Azure Storage Security, 2019),(Citation: UCF STIG Symbolic Links),(Citation: Cisco IOS Software Integrity Assurance - AAA),(Citation: Amazon  AWS Temporary Security Credentials),(Citation: Mandiant M-Trends 2020),(Citation: Wald0 Guide to GPOs),(Citation: Apple TN2459 Kernel Extensions),(Citation: Office 365 Partner Relationships),(Citation: Microsoft WMI Filters),(Citation: Microsoft GPO Security Filtering),(Citation: Crowdstrike AWS User Federation Persistence),(Citation: NSA and ASD Detect and Prevent Web Shells 2020),(Citation: Kubernetes Hardening Guide),(Citation: Kubernetes RBAC),(Citation: Expel IO Evil in AWS)</t>
   </si>
   <si>
     <t>(Citation: Re-Open windows on Mac),(Citation: CISA Phishing)</t>
